--- a/100runs/run022/NotionalETEOutput022.xlsx
+++ b/100runs/run022/NotionalETEOutput022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,31 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
-  </si>
-  <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_492.MISSILE_BRAVER_492</t>
+    <t>MISSILE_HELLMASKER_363.MISSILE_HELLMASKER_363</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_167.MISSILE_SOMERSAULT_167</t>
+    <t>MISSILE_HIGHWIND_283.MISSILE_HIGHWIND_283</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_111.MISSILE_HIGHWIND_111</t>
+    <t>MISSILE_HELLMASKER_66.MISSILE_HELLMASKER_66</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_298.MISSILE_HIGHWIND_298</t>
+    <t>MISSILE_HELLMASKER_481.MISSILE_HELLMASKER_481</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
@@ -483,31 +477,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G2">
-        <v>-75.16745983797979</v>
+        <v>4841116.038737066</v>
       </c>
       <c r="H2">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I2">
-        <v>-1508.653303242874</v>
+        <v>1114860.852823416</v>
       </c>
       <c r="J2">
-        <v>2876.450509815744</v>
+        <v>4843216.556490069</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984365.779459338</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +512,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G3">
-        <v>-75.16745983797979</v>
+        <v>4841116.038737066</v>
       </c>
       <c r="H3">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I3">
-        <v>-1478.868469889411</v>
+        <v>1114890.466806476</v>
       </c>
       <c r="J3">
-        <v>2806.478566924365</v>
+        <v>4843167.90496932</v>
       </c>
       <c r="K3">
-        <v>355.2662593324281</v>
+        <v>3984669.575105023</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +547,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G4">
-        <v>-75.16745983797979</v>
+        <v>4841116.038737066</v>
       </c>
       <c r="H4">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I4">
-        <v>-1448.350212416164</v>
+        <v>1114920.810006625</v>
       </c>
       <c r="J4">
-        <v>2736.506624032986</v>
+        <v>4843119.253448569</v>
       </c>
       <c r="K4">
-        <v>692.8173144924708</v>
+        <v>3984958.222107265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,31 +582,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G5">
-        <v>-75.16745983797979</v>
+        <v>4841116.038737066</v>
       </c>
       <c r="H5">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I5">
-        <v>-1417.08047092892</v>
+        <v>1114951.900380162</v>
       </c>
       <c r="J5">
-        <v>2666.534681141608</v>
+        <v>4843070.60192782</v>
       </c>
       <c r="K5">
-        <v>1012.653165480131</v>
+        <v>3985231.720466063</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,31 +617,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G6">
-        <v>-75.16745983797979</v>
+        <v>4841116.038737066</v>
       </c>
       <c r="H6">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I6">
-        <v>-1385.040740825187</v>
+        <v>1114983.756325544</v>
       </c>
       <c r="J6">
-        <v>2596.562738250229</v>
+        <v>4843021.95040707</v>
       </c>
       <c r="K6">
-        <v>1314.773812295406</v>
+        <v>3985490.070181418</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G7">
-        <v>-75.16745983797979</v>
+        <v>4841116.038737066</v>
       </c>
       <c r="H7">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I7">
-        <v>-1352.212061843661</v>
+        <v>1115016.396694276</v>
       </c>
       <c r="J7">
-        <v>2526.59079535885</v>
+        <v>4842973.298886321</v>
       </c>
       <c r="K7">
-        <v>1599.179254938298</v>
+        <v>3985733.271253331</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +687,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G8">
-        <v>-75.16745983797979</v>
+        <v>4841116.038737066</v>
       </c>
       <c r="H8">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I8">
-        <v>-1318.575006844045</v>
+        <v>1115049.840802058</v>
       </c>
       <c r="J8">
-        <v>2456.618852467471</v>
+        <v>4842924.64736557</v>
       </c>
       <c r="K8">
-        <v>1865.869493408806</v>
+        <v>3985961.3236818</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,31 +722,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G9">
-        <v>-75.16745983797979</v>
+        <v>4841116.038737066</v>
       </c>
       <c r="H9">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I9">
-        <v>-1284.109670310588</v>
+        <v>1115084.108440226</v>
       </c>
       <c r="J9">
-        <v>2386.646909576093</v>
+        <v>4842875.995844821</v>
       </c>
       <c r="K9">
-        <v>2114.84452770693</v>
+        <v>3986174.227466826</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,31 +757,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>189.398880187642</v>
+        <v>1116578.36085832</v>
       </c>
       <c r="G10">
-        <v>-62.75519639393389</v>
+        <v>4841132.5515272</v>
       </c>
       <c r="H10">
-        <v>588.243922770468</v>
+        <v>3985223.557138497</v>
       </c>
       <c r="I10">
-        <v>-1248.795656572522</v>
+        <v>1115119.219887459</v>
       </c>
       <c r="J10">
-        <v>2316.674966684714</v>
+        <v>4842827.344324071</v>
       </c>
       <c r="K10">
-        <v>2346.104357832669</v>
+        <v>3986371.982608409</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,31 +792,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>146.995625628246</v>
+        <v>1116529.680300784</v>
       </c>
       <c r="G11">
-        <v>-50.342932949888</v>
+        <v>4841149.064317334</v>
       </c>
       <c r="H11">
-        <v>724.7125545270268</v>
+        <v>3985422.81130672</v>
       </c>
       <c r="I11">
-        <v>-1212.612067734453</v>
+        <v>1115155.195921778</v>
       </c>
       <c r="J11">
-        <v>2246.703023793336</v>
+        <v>4842778.69280332</v>
       </c>
       <c r="K11">
-        <v>2559.648983786024</v>
+        <v>3986554.589106549</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,31 +827,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>122.0858407514744</v>
+        <v>1116501.082915312</v>
       </c>
       <c r="G12">
-        <v>-37.93066950584212</v>
+        <v>4841165.577107468</v>
       </c>
       <c r="H12">
-        <v>806.0002508720236</v>
+        <v>3985541.497279557</v>
       </c>
       <c r="I12">
-        <v>-1175.537491309539</v>
+        <v>1115192.057832844</v>
       </c>
       <c r="J12">
-        <v>2176.731080901957</v>
+        <v>4842730.04128257</v>
       </c>
       <c r="K12">
-        <v>2755.478405566996</v>
+        <v>3986722.046961246</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,31 +862,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>106.3609570629762</v>
+        <v>1116483.030147592</v>
       </c>
       <c r="G13">
-        <v>-25.51840606179622</v>
+        <v>4841182.089897601</v>
       </c>
       <c r="H13">
-        <v>864.0910734244292</v>
+        <v>3985626.314122667</v>
       </c>
       <c r="I13">
-        <v>-1137.549987548144</v>
+        <v>1115229.827434558</v>
       </c>
       <c r="J13">
-        <v>2106.759138010578</v>
+        <v>4842681.38976182</v>
       </c>
       <c r="K13">
-        <v>2933.592623175584</v>
+        <v>3986874.3561725</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,31 +897,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>95.3944870096678</v>
+        <v>1116470.440220665</v>
       </c>
       <c r="G14">
-        <v>-13.10614261775033</v>
+        <v>4841198.602687734</v>
       </c>
       <c r="H14">
-        <v>909.3263658238067</v>
+        <v>3985692.360952955</v>
       </c>
       <c r="I14">
-        <v>-1098.627076454489</v>
+        <v>1115268.527077967</v>
       </c>
       <c r="J14">
-        <v>2036.787195119199</v>
+        <v>4842632.738241071</v>
       </c>
       <c r="K14">
-        <v>3093.991636611789</v>
+        <v>3987011.51674031</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,31 +932,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>87.21317194159205</v>
+        <v>1116461.047758151</v>
       </c>
       <c r="G15">
-        <v>-0.6938791737044487</v>
+        <v>4841215.115477868</v>
       </c>
       <c r="H15">
-        <v>946.3775790680053</v>
+        <v>3985746.458430021</v>
       </c>
       <c r="I15">
-        <v>-1058.745724483575</v>
+        <v>1115308.179664492</v>
       </c>
       <c r="J15">
-        <v>1966.815252227821</v>
+        <v>4842584.086720321</v>
       </c>
       <c r="K15">
-        <v>3236.675445875608</v>
+        <v>3987133.528664678</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,31 +967,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>80.81652604513499</v>
+        <v>1116453.704164085</v>
       </c>
       <c r="G16">
-        <v>11.71838427034145</v>
+        <v>4841231.628268002</v>
       </c>
       <c r="H16">
-        <v>977.7572520783609</v>
+        <v>3985792.27504417</v>
       </c>
       <c r="I16">
-        <v>-1017.882330910547</v>
+        <v>1115348.808659481</v>
       </c>
       <c r="J16">
-        <v>1896.843309336442</v>
+        <v>4842535.435199571</v>
       </c>
       <c r="K16">
-        <v>3361.644050967044</v>
+        <v>3987240.391945603</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,31 +1002,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>75.64117375984141</v>
+        <v>1116447.76266178</v>
       </c>
       <c r="G17">
-        <v>24.13064771438734</v>
+        <v>4841248.141058136</v>
       </c>
       <c r="H17">
-        <v>1004.973403324672</v>
+        <v>3985832.012612497</v>
       </c>
       <c r="I17">
-        <v>-976.012713864416</v>
+        <v>1115390.438106093</v>
       </c>
       <c r="J17">
-        <v>1826.871366445064</v>
+        <v>4842486.783678821</v>
       </c>
       <c r="K17">
-        <v>3468.897451886095</v>
+        <v>3987332.106583084</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,31 +1037,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>71.34378728172095</v>
+        <v>1116442.829097791</v>
       </c>
       <c r="G18">
-        <v>36.54291115843322</v>
+        <v>4841264.653848269</v>
       </c>
       <c r="H18">
-        <v>1029.002571736342</v>
+        <v>3985867.096953148</v>
       </c>
       <c r="I18">
-        <v>-933.112096017866</v>
+        <v>1115433.092639529</v>
       </c>
       <c r="J18">
-        <v>1756.899423553685</v>
+        <v>4842438.132158072</v>
       </c>
       <c r="K18">
-        <v>3558.435648632764</v>
+        <v>3987408.672577123</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,31 +1072,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>67.70207557967136</v>
+        <v>1116438.648273515</v>
       </c>
       <c r="G19">
-        <v>48.95517460247913</v>
+        <v>4841281.166638402</v>
       </c>
       <c r="H19">
-        <v>1050.513512827402</v>
+        <v>3985898.504498016</v>
       </c>
       <c r="I19">
-        <v>-889.1550899246888</v>
+        <v>1115476.79750161</v>
       </c>
       <c r="J19">
-        <v>1686.927480662306</v>
+        <v>4842389.480637322</v>
       </c>
       <c r="K19">
-        <v>3630.258641207048</v>
+        <v>3987470.089927718</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>64.56509623508322</v>
+        <v>1116435.046901284</v>
       </c>
       <c r="G20">
-        <v>61.36743804652501</v>
+        <v>4841297.679428536</v>
       </c>
       <c r="H20">
-        <v>1069.984330936652</v>
+        <v>3985926.933314345</v>
       </c>
       <c r="I20">
-        <v>-844.1156829961714</v>
+        <v>1115521.578555712</v>
       </c>
       <c r="J20">
-        <v>1616.955537770928</v>
+        <v>4842340.829116572</v>
       </c>
       <c r="K20">
-        <v>3684.366429608948</v>
+        <v>3987516.35863487</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,31 +1142,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>61.8263511740943</v>
+        <v>1116431.902717237</v>
       </c>
       <c r="G21">
-        <v>73.77970149057089</v>
+        <v>4841314.192218671</v>
       </c>
       <c r="H21">
-        <v>1087.768700059595</v>
+        <v>3985952.899791999</v>
       </c>
       <c r="I21">
-        <v>-797.967222107534</v>
+        <v>1115567.462302074</v>
       </c>
       <c r="J21">
-        <v>1546.983594879549</v>
+        <v>4842292.177595822</v>
       </c>
       <c r="K21">
-        <v>3720.759013838464</v>
+        <v>3987547.47869858</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,31 +1177,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>59.4082981366584</v>
+        <v>1116429.126699895</v>
       </c>
       <c r="G22">
-        <v>86.19196493461679</v>
+        <v>4841330.705008804</v>
       </c>
       <c r="H22">
-        <v>1104.135616533953</v>
+        <v>3985976.796685274</v>
       </c>
       <c r="I22">
-        <v>-750.6823978253191</v>
+        <v>1115614.475893477</v>
       </c>
       <c r="J22">
-        <v>1477.01165198817</v>
+        <v>4842243.526075073</v>
       </c>
       <c r="K22">
-        <v>3739.436393895596</v>
+        <v>3987563.450118846</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,31 +1212,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>57.25297400035578</v>
+        <v>1116426.652305377</v>
       </c>
       <c r="G23">
-        <v>98.60422837866268</v>
+        <v>4841347.217798937</v>
       </c>
       <c r="H23">
-        <v>1119.294444157223</v>
+        <v>3985998.929680603</v>
       </c>
       <c r="I23">
-        <v>-702.2332282463954</v>
+        <v>1115662.647151317</v>
       </c>
       <c r="J23">
-        <v>1407.039709096792</v>
+        <v>4842194.874554323</v>
       </c>
       <c r="K23">
-        <v>3740.398569780344</v>
+        <v>3987564.272895669</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>55.31607487570382</v>
+        <v>1116424.428671124</v>
       </c>
       <c r="G24">
-        <v>111.0164918227086</v>
+        <v>4841363.730589071</v>
       </c>
       <c r="H24">
-        <v>1133.411333968603</v>
+        <v>3986019.541370638</v>
       </c>
       <c r="I24">
-        <v>-652.5910424390096</v>
+        <v>1115712.004582064</v>
       </c>
       <c r="J24">
-        <v>1337.067766205413</v>
+        <v>4842146.223033573</v>
       </c>
       <c r="K24">
-        <v>3723.645541492708</v>
+        <v>3987549.947029048</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,31 +1282,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>53.56308348050413</v>
+        <v>1116422.416169977</v>
       </c>
       <c r="G25">
-        <v>123.4287552667545</v>
+        <v>4841380.243379205</v>
       </c>
       <c r="H25">
-        <v>1146.620354726029</v>
+        <v>3986038.827505555</v>
       </c>
       <c r="I25">
-        <v>-601.72646347609</v>
+        <v>1115762.577394136</v>
       </c>
       <c r="J25">
-        <v>1267.095823314034</v>
+        <v>4842097.571512823</v>
       </c>
       <c r="K25">
-        <v>3689.177309032689</v>
+        <v>3987520.472518985</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,31 +1317,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>51.96665749400526</v>
+        <v>1116420.583411904</v>
       </c>
       <c r="G26">
-        <v>135.8410187108004</v>
+        <v>4841396.756169339</v>
       </c>
       <c r="H26">
-        <v>1159.031255517223</v>
+        <v>3986056.948327038</v>
       </c>
       <c r="I26">
-        <v>-549.6093910507634</v>
+        <v>1115814.395515178</v>
       </c>
       <c r="J26">
-        <v>1197.123880422655</v>
+        <v>4842048.919992073</v>
       </c>
       <c r="K26">
-        <v>3636.993872400285</v>
+        <v>3987475.849365479</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,31 +1352,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>50.50482124334446</v>
+        <v>1116418.905167995</v>
       </c>
       <c r="G27">
-        <v>148.2532821548462</v>
+        <v>4841413.268959471</v>
       </c>
       <c r="H27">
-        <v>1170.735013895401</v>
+        <v>3986074.036668957</v>
       </c>
       <c r="I27">
-        <v>-496.2089836637907</v>
+        <v>1115867.48960978</v>
       </c>
       <c r="J27">
-        <v>1127.151937531277</v>
+        <v>4842000.268471323</v>
       </c>
       <c r="K27">
-        <v>3567.095231595497</v>
+        <v>3987416.07756853</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,31 +1387,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>49.15968441258695</v>
+        <v>1116417.360899481</v>
       </c>
       <c r="G28">
-        <v>160.6655455988921</v>
+        <v>4841429.781749605</v>
       </c>
       <c r="H28">
-        <v>1181.807886874674</v>
+        <v>3986090.203872123</v>
       </c>
       <c r="I28">
-        <v>-441.4936403723879</v>
+        <v>1115921.891097615</v>
       </c>
       <c r="J28">
-        <v>1057.179994639898</v>
+        <v>4841951.616950573</v>
       </c>
       <c r="K28">
-        <v>3479.481386618326</v>
+        <v>3987341.157128137</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,31 +1422,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>47.91651552455019</v>
+        <v>1116415.933694065</v>
       </c>
       <c r="G29">
-        <v>173.077809042938</v>
+        <v>4841446.294539739</v>
       </c>
       <c r="H29">
-        <v>1192.314424856766</v>
+        <v>3986105.544184835</v>
       </c>
       <c r="I29">
-        <v>-385.4309820896265</v>
+        <v>1115977.63217204</v>
       </c>
       <c r="J29">
-        <v>987.2080517485194</v>
+        <v>4841902.965429824</v>
       </c>
       <c r="K29">
-        <v>3374.15233746877</v>
+        <v>3987251.088044302</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>46.76305974763818</v>
+        <v>1116414.60948273</v>
       </c>
       <c r="G30">
-        <v>185.4900724869839</v>
+        <v>4841462.807329873</v>
       </c>
       <c r="H30">
-        <v>1202.309751622679</v>
+        <v>3986120.138091839</v>
       </c>
       <c r="I30">
-        <v>-327.9878324233522</v>
+        <v>1116034.745819142</v>
       </c>
       <c r="J30">
-        <v>917.2361088571406</v>
+        <v>4841854.313909074</v>
       </c>
       <c r="K30">
-        <v>3251.10808414683</v>
+        <v>3987145.870317023</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,31 +1492,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>45.68902841547502</v>
+        <v>1116413.376453695</v>
       </c>
       <c r="G31">
-        <v>197.9023359310298</v>
+        <v>4841479.320120007</v>
       </c>
       <c r="H31">
-        <v>1211.841314934344</v>
+        <v>3986134.054870333</v>
       </c>
       <c r="I31">
-        <v>-269.1301980432747</v>
+        <v>1116093.265837261</v>
       </c>
       <c r="J31">
-        <v>847.2641659657621</v>
+        <v>4841805.662388324</v>
       </c>
       <c r="K31">
-        <v>3110.348626652507</v>
+        <v>3987025.503946302</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>44.6857114438977</v>
+        <v>1116412.224607449</v>
       </c>
       <c r="G32">
-        <v>210.3145993750757</v>
+        <v>4841495.83291014</v>
       </c>
       <c r="H32">
-        <v>1220.950248726049</v>
+        <v>3986147.354578864</v>
       </c>
       <c r="I32">
-        <v>-208.8232485646187</v>
+        <v>1116153.226856987</v>
       </c>
       <c r="J32">
-        <v>777.2922230743833</v>
+        <v>4841757.010867574</v>
       </c>
       <c r="K32">
-        <v>2951.873964985799</v>
+        <v>3986889.988932137</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,31 +1562,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>43.74567916291603</v>
+        <v>1116411.145414448</v>
       </c>
       <c r="G33">
-        <v>222.7268628191216</v>
+        <v>4841512.345700273</v>
       </c>
       <c r="H33">
-        <v>1229.672445919558</v>
+        <v>3986160.08962372</v>
       </c>
       <c r="I33">
-        <v>-147.0312959364265</v>
+        <v>1116214.664361662</v>
       </c>
       <c r="J33">
-        <v>707.3202801830049</v>
+        <v>4841708.359346825</v>
       </c>
       <c r="K33">
-        <v>2775.684099146708</v>
+        <v>3986739.325274529</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,31 +1597,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>42.86255017811738</v>
+        <v>1116410.131548607</v>
       </c>
       <c r="G34">
-        <v>235.1391262631675</v>
+        <v>4841528.858490407</v>
       </c>
       <c r="H34">
-        <v>1238.039412634414</v>
+        <v>3986172.306006136</v>
       </c>
       <c r="I34">
-        <v>-83.71777332231905</v>
+        <v>1116277.614708367</v>
       </c>
       <c r="J34">
-        <v>637.3483372916261</v>
+        <v>4841659.707826075</v>
       </c>
       <c r="K34">
-        <v>2581.779029135232</v>
+        <v>3986573.512973478</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,31 +1632,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>42.03080865707438</v>
+        <v>1116409.176677539</v>
       </c>
       <c r="G35">
-        <v>247.5513897072134</v>
+        <v>4841545.371280541</v>
       </c>
       <c r="H35">
-        <v>1246.078955160302</v>
+        <v>3986184.044325326</v>
       </c>
       <c r="I35">
-        <v>-18.84521346121225</v>
+        <v>1116342.115149447</v>
       </c>
       <c r="J35">
-        <v>567.3763944002472</v>
+        <v>4841611.056305325</v>
       </c>
       <c r="K35">
-        <v>2370.158754951372</v>
+        <v>3986392.552028984</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,31 +1667,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>41.24565907278995</v>
+        <v>1116408.275295796</v>
       </c>
       <c r="G36">
-        <v>259.9636531512593</v>
+        <v>4841561.884070675</v>
       </c>
       <c r="H36">
-        <v>1253.8157375058</v>
+        <v>3986195.340592542</v>
       </c>
       <c r="I36">
-        <v>47.62477350481377</v>
+        <v>1116408.203854549</v>
       </c>
       <c r="J36">
-        <v>497.4044515088688</v>
+        <v>4841562.404784575</v>
       </c>
       <c r="K36">
-        <v>2140.82327659513</v>
+        <v>3986196.442441047</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,31 +1702,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>40.50290965867027</v>
+        <v>1116407.422591069</v>
       </c>
       <c r="G37">
-        <v>272.3759165953052</v>
+        <v>4841578.396860808</v>
       </c>
       <c r="H37">
-        <v>1261.271737723797</v>
+        <v>3986206.226897347</v>
       </c>
       <c r="I37">
-        <v>115.7315227486114</v>
+        <v>1116475.919933214</v>
       </c>
       <c r="J37">
-        <v>427.43250861749</v>
+        <v>4841513.753263826</v>
       </c>
       <c r="K37">
-        <v>1893.772594066502</v>
+        <v>3985985.184209667</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,31 +1737,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>39.79887810303749</v>
+        <v>1116406.614335925</v>
       </c>
       <c r="G38">
-        <v>284.7881800393511</v>
+        <v>4841594.909650941</v>
       </c>
       <c r="H38">
-        <v>1268.466624295672</v>
+        <v>3986216.731957161</v>
       </c>
       <c r="I38">
-        <v>185.5153380354777</v>
+        <v>1116545.303458019</v>
       </c>
       <c r="J38">
-        <v>357.4605657261116</v>
+        <v>4841465.101743076</v>
       </c>
       <c r="K38">
-        <v>1629.006707365492</v>
+        <v>3985758.777334843</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,31 +1772,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>39.13031463754666</v>
+        <v>1116405.846799503</v>
       </c>
       <c r="G39">
-        <v>297.200443483397</v>
+        <v>4841611.422441076</v>
       </c>
       <c r="H39">
-        <v>1275.418068812264</v>
+        <v>3986226.881573797</v>
       </c>
       <c r="I39">
-        <v>257.0175155738495</v>
+        <v>1116616.39548829</v>
       </c>
       <c r="J39">
-        <v>287.4886228347328</v>
+        <v>4841416.450222326</v>
       </c>
       <c r="K39">
-        <v>1346.525616492095</v>
+        <v>3985517.221816577</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,31 +1807,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>38.49433885220161</v>
+        <v>1116405.116674985</v>
       </c>
       <c r="G40">
-        <v>309.6127069274428</v>
+        <v>4841627.93523121</v>
       </c>
       <c r="H40">
-        <v>1282.142007467309</v>
+        <v>3986236.699015261</v>
       </c>
       <c r="I40">
-        <v>330.2803684533072</v>
+        <v>1116689.238094403</v>
       </c>
       <c r="J40">
-        <v>217.5166799433539</v>
+        <v>4841367.798701576</v>
       </c>
       <c r="K40">
-        <v>1046.329321446316</v>
+        <v>3985260.517654868</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>37.88838743354189</v>
+        <v>1116404.421019588</v>
       </c>
       <c r="G41">
-        <v>322.0249703714887</v>
+        <v>4841644.448021343</v>
       </c>
       <c r="H41">
-        <v>1288.652861100959</v>
+        <v>3986246.205337032</v>
       </c>
       <c r="I41">
-        <v>405.3472516843317</v>
+        <v>1116763.874382677</v>
       </c>
       <c r="J41">
-        <v>147.5447370519755</v>
+        <v>4841319.147180825</v>
       </c>
       <c r="K41">
-        <v>728.4178222281535</v>
+        <v>3984988.664849715</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,31 +1877,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>37.31017066291209</v>
+        <v>1116403.757204627</v>
       </c>
       <c r="G42">
-        <v>334.4372338155346</v>
+        <v>4841660.960811476</v>
       </c>
       <c r="H42">
-        <v>1294.963721436089</v>
+        <v>3986255.419653982</v>
       </c>
       <c r="I42">
-        <v>482.2625878546555</v>
+        <v>1116840.348520887</v>
       </c>
       <c r="J42">
-        <v>77.5727941605967</v>
+        <v>4841270.495660076</v>
       </c>
       <c r="K42">
-        <v>392.7911188376058</v>
+        <v>3984701.663401119</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,31 +1912,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>36.75763599123528</v>
+        <v>1116403.122873697</v>
       </c>
       <c r="G43">
-        <v>346.8494972595805</v>
+        <v>4841677.47360161</v>
       </c>
       <c r="H43">
-        <v>1301.086509554955</v>
+        <v>3986264.359371764</v>
       </c>
       <c r="I43">
-        <v>561.0718934173611</v>
+        <v>1116918.705764394</v>
       </c>
       <c r="J43">
-        <v>7.600851269217904</v>
+        <v>4841221.844139325</v>
       </c>
       <c r="K43">
-        <v>39.44921127467437</v>
+        <v>3984399.513309081</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,31 +1947,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>36.22893736924588</v>
+        <v>1116402.515907464</v>
       </c>
       <c r="G44">
-        <v>359.2617607036264</v>
+        <v>4841693.986391744</v>
       </c>
       <c r="H44">
-        <v>1307.032111438089</v>
+        <v>3986273.040384701</v>
       </c>
       <c r="I44">
-        <v>641.8218056263161</v>
+        <v>1116998.992482936</v>
       </c>
       <c r="J44">
-        <v>-62.37109162216056</v>
+        <v>4841173.192618576</v>
       </c>
       <c r="K44">
-        <v>-331.6079004606399</v>
+        <v>3984082.214573599</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>35.72240928868273</v>
+        <v>1116401.934393861</v>
       </c>
       <c r="G45">
-        <v>371.6740241476722</v>
+        <v>4841710.499181878</v>
       </c>
       <c r="H45">
-        <v>1312.810494437579</v>
+        <v>3986281.477245856</v>
       </c>
       <c r="I45">
-        <v>724.5601101348599</v>
+        <v>1117081.256188059</v>
       </c>
       <c r="J45">
-        <v>-132.3430345135394</v>
+        <v>4841124.541097826</v>
       </c>
       <c r="K45">
-        <v>-720.3802163683392</v>
+        <v>3983749.767194674</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,31 +2017,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>35.23654470267192</v>
+        <v>1116401.376602739</v>
       </c>
       <c r="G46">
-        <v>384.0862875917182</v>
+        <v>4841727.01197201</v>
       </c>
       <c r="H46">
-        <v>1318.43080781514</v>
+        <v>3986289.683313821</v>
       </c>
       <c r="I46">
-        <v>809.3357692740827</v>
+        <v>1117165.54556124</v>
       </c>
       <c r="J46">
-        <v>-202.3149774049182</v>
+        <v>4841075.889577076</v>
       </c>
       <c r="K46">
-        <v>-1126.867736448424</v>
+        <v>3983402.171172306</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,31 +2052,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>34.76997615846834</v>
+        <v>1116400.840964211</v>
       </c>
       <c r="G47">
-        <v>396.4985510357641</v>
+        <v>4841743.524762144</v>
       </c>
       <c r="H47">
-        <v>1323.901469891611</v>
+        <v>3986297.670879957</v>
       </c>
       <c r="I47">
-        <v>896.1989510274325</v>
+        <v>1117251.910482691</v>
       </c>
       <c r="J47">
-        <v>-272.286920296297</v>
+        <v>4841027.238056326</v>
       </c>
       <c r="K47">
-        <v>-1551.070460700891</v>
+        <v>3983039.426506496</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,31 +2087,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>34.32145960455239</v>
+        <v>1116400.326050058</v>
       </c>
       <c r="G48">
-        <v>408.9108144798099</v>
+        <v>4841760.037552278</v>
       </c>
       <c r="H48">
-        <v>1329.230243892049</v>
+        <v>3986305.45127914</v>
       </c>
       <c r="I48">
-        <v>985.201058718796</v>
+        <v>1117340.402060878</v>
       </c>
       <c r="J48">
-        <v>-342.2588631876751</v>
+        <v>4840978.586535577</v>
       </c>
       <c r="K48">
-        <v>-1992.988389125739</v>
+        <v>3982661.533197241</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,31 +2122,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>33.88986043541674</v>
+        <v>1116399.830557709</v>
       </c>
       <c r="G49">
-        <v>421.3230779238559</v>
+        <v>4841776.550342412</v>
       </c>
       <c r="H49">
-        <v>1334.424304201591</v>
+        <v>3986313.034986497</v>
       </c>
       <c r="I49">
-        <v>1076.394761431623</v>
+        <v>1117431.072662767</v>
       </c>
       <c r="J49">
-        <v>-412.2308060790539</v>
+        <v>4840929.935014827</v>
       </c>
       <c r="K49">
-        <v>-2452.621521722974</v>
+        <v>3982268.491244544</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,31 +2157,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>33.47414141761357</v>
+        <v>1116399.353296381</v>
       </c>
       <c r="G50">
-        <v>433.7353413679018</v>
+        <v>4841793.063132546</v>
       </c>
       <c r="H50">
-        <v>1339.490294451144</v>
+        <v>3986320.431702215</v>
       </c>
       <c r="I50">
-        <v>1169.834025177084</v>
+        <v>1117523.975944812</v>
       </c>
       <c r="J50">
-        <v>-482.2027489704327</v>
+        <v>4840881.283494077</v>
       </c>
       <c r="K50">
-        <v>-2929.969858492594</v>
+        <v>3981860.300648404</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,31 +2192,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>33.07335220456385</v>
+        <v>1116398.893175041</v>
       </c>
       <c r="G51">
-        <v>446.1476048119476</v>
+        <v>4841809.575922679</v>
       </c>
       <c r="H51">
-        <v>1344.434378612845</v>
+        <v>3986327.650426141</v>
       </c>
       <c r="I51">
-        <v>1265.574144829731</v>
+        <v>1117619.166884708</v>
       </c>
       <c r="J51">
-        <v>-552.1746918618114</v>
+        <v>4840832.631973327</v>
       </c>
       <c r="K51">
-        <v>-3425.033399434598</v>
+        <v>3981436.96140882</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,31 +2227,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>32.68662019887126</v>
+        <v>1116398.449191911</v>
       </c>
       <c r="G52">
-        <v>458.5598682559935</v>
+        <v>4841826.088712812</v>
       </c>
       <c r="H52">
-        <v>1349.262286091071</v>
+        <v>3986334.699523625</v>
       </c>
       <c r="I52">
-        <v>1363.67177684953</v>
+        <v>1117716.701813925</v>
       </c>
       <c r="J52">
-        <v>-622.1466347531903</v>
+        <v>4840783.980452578</v>
       </c>
       <c r="K52">
-        <v>-3937.812144548985</v>
+        <v>3980998.473525794</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,31 +2262,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>32.31314256218209</v>
+        <v>1116398.020425304</v>
       </c>
       <c r="G53">
-        <v>470.9721317000394</v>
+        <v>4841842.601502947</v>
       </c>
       <c r="H53">
-        <v>1353.979351636337</v>
+        <v>3986341.586783793</v>
       </c>
       <c r="I53">
-        <v>1464.184972809649</v>
+        <v>1117816.638451044</v>
       </c>
       <c r="J53">
-        <v>-692.1185776445684</v>
+        <v>4840735.328931828</v>
       </c>
       <c r="K53">
-        <v>-4468.306093835752</v>
+        <v>3980544.836999325</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,31 +2297,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>31.95217920610201</v>
+        <v>1116397.60602557</v>
       </c>
       <c r="G54">
-        <v>483.3843951440853</v>
+        <v>4841859.114293081</v>
       </c>
       <c r="H54">
-        <v>1358.590550779385</v>
+        <v>3986348.319471283</v>
       </c>
       <c r="I54">
-        <v>1567.173213749841</v>
+        <v>1117919.035935911</v>
       </c>
       <c r="J54">
-        <v>-762.0905205359472</v>
+        <v>4840686.677411078</v>
       </c>
       <c r="K54">
-        <v>-5016.515247294908</v>
+        <v>3980076.051829412</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,31 +2332,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G55">
-        <v>-72.99177363834902</v>
+        <v>4841122.950803914</v>
       </c>
       <c r="H55">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I55">
-        <v>-1849.864566080357</v>
+        <v>1114861.163870083</v>
       </c>
       <c r="J55">
-        <v>1489.796496865293</v>
+        <v>4843226.849943556</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984367.619946235</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,31 +2367,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G56">
-        <v>-72.99177363834902</v>
+        <v>4841122.950803914</v>
       </c>
       <c r="H56">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I56">
-        <v>-1813.34331384252</v>
+        <v>1114890.777861405</v>
       </c>
       <c r="J56">
-        <v>1453.556014005356</v>
+        <v>4843178.198319405</v>
       </c>
       <c r="K56">
-        <v>287.3002477852521</v>
+        <v>3984671.415732251</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,31 +2402,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G57">
-        <v>-72.99177363834902</v>
+        <v>4841122.950803914</v>
       </c>
       <c r="H57">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I57">
-        <v>-1775.922759367262</v>
+        <v>1114921.121070019</v>
       </c>
       <c r="J57">
-        <v>1417.31553114542</v>
+        <v>4843129.546695255</v>
       </c>
       <c r="K57">
-        <v>560.2743882788735</v>
+        <v>3984960.062867827</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,31 +2437,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G58">
-        <v>-72.99177363834902</v>
+        <v>4841122.950803914</v>
       </c>
       <c r="H58">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I58">
-        <v>-1737.58075816433</v>
+        <v>1114952.211452231</v>
       </c>
       <c r="J58">
-        <v>1381.075048285483</v>
+        <v>4843080.895071104</v>
       </c>
       <c r="K58">
-        <v>818.9224214808663</v>
+        <v>3985233.561352961</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,31 +2472,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G59">
-        <v>-72.99177363834902</v>
+        <v>4841122.950803914</v>
       </c>
       <c r="H59">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I59">
-        <v>-1698.294620455771</v>
+        <v>1114984.067406501</v>
       </c>
       <c r="J59">
-        <v>1344.834565425546</v>
+        <v>4843032.243446954</v>
       </c>
       <c r="K59">
-        <v>1063.244347391229</v>
+        <v>3985491.911187656</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,31 +2507,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G60">
-        <v>-72.99177363834902</v>
+        <v>4841122.950803914</v>
       </c>
       <c r="H60">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I60">
-        <v>-1658.041097748721</v>
+        <v>1115016.707784339</v>
       </c>
       <c r="J60">
-        <v>1308.594082565609</v>
+        <v>4842983.591822803</v>
       </c>
       <c r="K60">
-        <v>1293.240166009963</v>
+        <v>3985735.112371909</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2548,31 +2542,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G61">
-        <v>-72.99177363834902</v>
+        <v>4841122.950803914</v>
       </c>
       <c r="H61">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I61">
-        <v>-1616.796369077572</v>
+        <v>1115050.151901452</v>
       </c>
       <c r="J61">
-        <v>1272.353599705672</v>
+        <v>4842934.940198652</v>
       </c>
       <c r="K61">
-        <v>1508.909877337067</v>
+        <v>3985963.164905722</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2583,31 +2577,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G62">
-        <v>-72.99177363834902</v>
+        <v>4841122.950803914</v>
       </c>
       <c r="H62">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I62">
-        <v>-1574.536026907351</v>
+        <v>1115084.419549181</v>
       </c>
       <c r="J62">
-        <v>1236.113116845735</v>
+        <v>4842886.288574502</v>
       </c>
       <c r="K62">
-        <v>1710.253481372542</v>
+        <v>3986176.068789094</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2618,31 +2612,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>255.9750997925525</v>
+        <v>1116578.331971005</v>
       </c>
       <c r="G63">
-        <v>-60.93877722739963</v>
+        <v>4841139.463617625</v>
       </c>
       <c r="H63">
-        <v>800.3690582494321</v>
+        <v>3985230.658817431</v>
       </c>
       <c r="I63">
-        <v>-1531.235062689991</v>
+        <v>1115119.53100621</v>
       </c>
       <c r="J63">
-        <v>1199.872633985798</v>
+        <v>4842837.636950351</v>
       </c>
       <c r="K63">
-        <v>1897.270978116386</v>
+        <v>3986373.824022026</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,31 +2647,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>198.6665385876663</v>
+        <v>1116529.651414729</v>
       </c>
       <c r="G64">
-        <v>-48.88578081645025</v>
+        <v>4841155.976431334</v>
       </c>
       <c r="H64">
-        <v>986.049294035234</v>
+        <v>3985429.913340725</v>
       </c>
       <c r="I64">
-        <v>-1486.867852064934</v>
+        <v>1115155.507050566</v>
       </c>
       <c r="J64">
-        <v>1163.632151125861</v>
+        <v>4842788.985326202</v>
       </c>
       <c r="K64">
-        <v>2069.962367568601</v>
+        <v>3986556.430604517</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,31 +2682,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>165.0006337875667</v>
+        <v>1116501.054029997</v>
       </c>
       <c r="G65">
-        <v>-36.83278440550088</v>
+        <v>4841172.489245045</v>
       </c>
       <c r="H65">
-        <v>1096.649938517025</v>
+        <v>3985548.599525062</v>
       </c>
       <c r="I65">
-        <v>-1441.408139695321</v>
+        <v>1115192.368971917</v>
       </c>
       <c r="J65">
-        <v>1127.391668265924</v>
+        <v>4842740.33370205</v>
       </c>
       <c r="K65">
-        <v>2228.327649729187</v>
+        <v>3986723.888536567</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2723,31 +2717,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>143.7482448220048</v>
+        <v>1116483.001262744</v>
       </c>
       <c r="G66">
-        <v>-24.7797879945515</v>
+        <v>4841189.002058757</v>
       </c>
       <c r="H66">
-        <v>1175.688743916373</v>
+        <v>3985633.416519315</v>
       </c>
       <c r="I66">
-        <v>-1394.829023730773</v>
+        <v>1115230.138584169</v>
       </c>
       <c r="J66">
-        <v>1091.151185405987</v>
+        <v>4842691.6820779</v>
       </c>
       <c r="K66">
-        <v>2372.366824598143</v>
+        <v>3986876.197818176</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2758,31 +2752,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>128.9269150259334</v>
+        <v>1116470.411336142</v>
       </c>
       <c r="G67">
-        <v>-12.72679158360211</v>
+        <v>4841205.514872466</v>
       </c>
       <c r="H67">
-        <v>1237.236219335774</v>
+        <v>3985699.463467299</v>
       </c>
       <c r="I67">
-        <v>-1347.102939887601</v>
+        <v>1115268.838238375</v>
       </c>
       <c r="J67">
-        <v>1054.91070254605</v>
+        <v>4842643.030453749</v>
       </c>
       <c r="K67">
-        <v>2502.079892175471</v>
+        <v>3987013.358449345</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2793,31 +2787,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>117.8697591498785</v>
+        <v>1116461.018873872</v>
       </c>
       <c r="G68">
-        <v>-0.6737951726527438</v>
+        <v>4841222.027686177</v>
       </c>
       <c r="H68">
-        <v>1287.64837576162</v>
+        <v>3985753.561040766</v>
       </c>
       <c r="I68">
-        <v>-1298.201645136982</v>
+        <v>1115308.490835963</v>
       </c>
       <c r="J68">
-        <v>1018.670219686113</v>
+        <v>4842594.378829599</v>
       </c>
       <c r="K68">
-        <v>2617.466852461167</v>
+        <v>3987135.370430074</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2828,31 +2822,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>109.2246073408445</v>
+        <v>1116453.675279995</v>
       </c>
       <c r="G69">
-        <v>11.37920123829664</v>
+        <v>4841238.540499886</v>
       </c>
       <c r="H69">
-        <v>1330.343792345249</v>
+        <v>3985799.377736561</v>
       </c>
       <c r="I69">
-        <v>-1248.096200991496</v>
+        <v>1115349.119842287</v>
       </c>
       <c r="J69">
-        <v>982.4297368261763</v>
+        <v>4842545.727205448</v>
       </c>
       <c r="K69">
-        <v>2718.527705455235</v>
+        <v>3987242.233760362</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2863,31 +2857,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>102.2300500531923</v>
+        <v>1116447.733777844</v>
       </c>
       <c r="G70">
-        <v>23.43219764924602</v>
+        <v>4841255.053313597</v>
       </c>
       <c r="H70">
-        <v>1367.374290237336</v>
+        <v>3985839.1153757</v>
       </c>
       <c r="I70">
-        <v>-1196.75695638009</v>
+        <v>1115390.749300514</v>
       </c>
       <c r="J70">
-        <v>946.1892539662394</v>
+        <v>4842497.075581297</v>
       </c>
       <c r="K70">
-        <v>2805.262451157673</v>
+        <v>3987333.948440208</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2898,31 +2892,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>96.42207520405783</v>
+        <v>1116442.800213983</v>
       </c>
       <c r="G71">
-        <v>35.48519406019539</v>
+        <v>4841271.566127308</v>
       </c>
       <c r="H71">
-        <v>1400.068555571326</v>
+        <v>3985874.199778873</v>
       </c>
       <c r="I71">
-        <v>-1144.153530101367</v>
+        <v>1115433.403845851</v>
       </c>
       <c r="J71">
-        <v>909.9487711063025</v>
+        <v>4842448.423957147</v>
       </c>
       <c r="K71">
-        <v>2877.671089568482</v>
+        <v>3987410.514469615</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2933,31 +2927,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>91.50025351522679</v>
+        <v>1116438.619389815</v>
       </c>
       <c r="G72">
-        <v>47.53819047114478</v>
+        <v>4841288.078941017</v>
       </c>
       <c r="H72">
-        <v>1429.336502075601</v>
+        <v>3985905.607379708</v>
       </c>
       <c r="I72">
-        <v>-1090.254792844795</v>
+        <v>1115477.108720126</v>
       </c>
       <c r="J72">
-        <v>873.7082882463654</v>
+        <v>4842399.772332997</v>
       </c>
       <c r="K72">
-        <v>2935.753620687661</v>
+        <v>3987471.93184858</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2968,31 +2962,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>87.26058430502563</v>
+        <v>1116435.018017677</v>
       </c>
       <c r="G73">
-        <v>59.59118688209415</v>
+        <v>4841304.591754728</v>
       </c>
       <c r="H73">
-        <v>1455.828642070946</v>
+        <v>3985934.036246697</v>
       </c>
       <c r="I73">
-        <v>-1035.02884876921</v>
+        <v>1115521.889786722</v>
       </c>
       <c r="J73">
-        <v>837.4678053864286</v>
+        <v>4842351.120708846</v>
       </c>
       <c r="K73">
-        <v>2979.510044515211</v>
+        <v>3987518.200577105</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3003,31 +2997,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>83.55913401345869</v>
+        <v>1116431.873833712</v>
       </c>
       <c r="G74">
-        <v>71.64418329304353</v>
+        <v>4841321.104568439</v>
       </c>
       <c r="H74">
-        <v>1480.026187027215</v>
+        <v>3985960.002770624</v>
       </c>
       <c r="I74">
-        <v>-978.4430166276998</v>
+        <v>1115567.773545885</v>
       </c>
       <c r="J74">
-        <v>801.2273225264917</v>
+        <v>4842302.469084695</v>
       </c>
       <c r="K74">
-        <v>3008.940361051131</v>
+        <v>3987549.32065519</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,31 +3032,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>80.29110324713041</v>
+        <v>1116429.097816442</v>
       </c>
       <c r="G75">
-        <v>83.69717970399292</v>
+        <v>4841337.617382148</v>
       </c>
       <c r="H75">
-        <v>1502.295135363023</v>
+        <v>3985983.899706482</v>
       </c>
       <c r="I75">
-        <v>-920.463810427716</v>
+        <v>1115614.787150405</v>
       </c>
       <c r="J75">
-        <v>764.9868396665548</v>
+        <v>4842253.817460544</v>
       </c>
       <c r="K75">
-        <v>3024.044570295422</v>
+        <v>3987565.292082834</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3073,31 +3067,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>77.37815407695173</v>
+        <v>1116426.623421988</v>
       </c>
       <c r="G76">
-        <v>95.75017611494229</v>
+        <v>4841354.130195859</v>
       </c>
       <c r="H76">
-        <v>1522.920349019053</v>
+        <v>3986006.032741253</v>
       </c>
       <c r="I76">
-        <v>-861.0569196149492</v>
+        <v>1115662.958421684</v>
       </c>
       <c r="J76">
-        <v>728.7463568066178</v>
+        <v>4842205.165836395</v>
       </c>
       <c r="K76">
-        <v>3024.822672248082</v>
+        <v>3987566.114860036</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,31 +3102,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>74.76040920839868</v>
+        <v>1116424.399787792</v>
       </c>
       <c r="G77">
-        <v>107.8031725258917</v>
+        <v>4841370.643009569</v>
       </c>
       <c r="H77">
-        <v>1542.127894335513</v>
+        <v>3986026.644468018</v>
       </c>
       <c r="I77">
-        <v>-800.1871887692557</v>
+        <v>1115712.315866203</v>
       </c>
       <c r="J77">
-        <v>692.5058739466808</v>
+        <v>4842156.514212243</v>
       </c>
       <c r="K77">
-        <v>3011.274666909114</v>
+        <v>3987551.788986798</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3143,31 +3137,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>72.39121807655478</v>
+        <v>1116422.387286697</v>
       </c>
       <c r="G78">
-        <v>119.856168936841</v>
+        <v>4841387.155823279</v>
       </c>
       <c r="H78">
-        <v>1560.100186262008</v>
+        <v>3986045.930637304</v>
       </c>
       <c r="I78">
-        <v>-737.8185968006119</v>
+        <v>1115762.888692384</v>
       </c>
       <c r="J78">
-        <v>656.265391086744</v>
+        <v>4842107.862588093</v>
       </c>
       <c r="K78">
-        <v>2983.400554278516</v>
+        <v>3987522.31446312</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3178,31 +3172,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>70.23362717210691</v>
+        <v>1116420.554528672</v>
       </c>
       <c r="G79">
-        <v>131.9091653477904</v>
+        <v>4841403.66863699</v>
       </c>
       <c r="H79">
-        <v>1576.986550223904</v>
+        <v>3986064.051491078</v>
       </c>
       <c r="I79">
-        <v>-673.9142356327932</v>
+        <v>1115814.706827884</v>
       </c>
       <c r="J79">
-        <v>620.0249082268069</v>
+        <v>4842059.210963943</v>
       </c>
       <c r="K79">
-        <v>2941.200334356288</v>
+        <v>3987477.691289002</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3213,31 +3207,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>68.25793608157592</v>
+        <v>1116418.876284806</v>
       </c>
       <c r="G80">
-        <v>143.9621617587398</v>
+        <v>4841420.1814507</v>
       </c>
       <c r="H80">
-        <v>1592.910770957037</v>
+        <v>3986081.139863448</v>
       </c>
       <c r="I80">
-        <v>-608.4362883621512</v>
+        <v>1115867.800937299</v>
       </c>
       <c r="J80">
-        <v>583.78442536687</v>
+        <v>4842010.559339792</v>
       </c>
       <c r="K80">
-        <v>2884.674007142431</v>
+        <v>3987417.919464442</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3248,31 +3242,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>66.43996580558134</v>
+        <v>1116417.332016332</v>
       </c>
       <c r="G81">
-        <v>156.0151581696892</v>
+        <v>4841436.694264411</v>
       </c>
       <c r="H81">
-        <v>1607.976604322212</v>
+        <v>3986097.307095424</v>
       </c>
       <c r="I81">
-        <v>-541.346006878577</v>
+        <v>1115922.202440312</v>
       </c>
       <c r="J81">
-        <v>547.5439425069331</v>
+        <v>4841961.907715641</v>
       </c>
       <c r="K81">
-        <v>2813.821572636945</v>
+        <v>3987342.998989441</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,31 +3277,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>64.75980655723237</v>
+        <v>1116415.904810952</v>
       </c>
       <c r="G82">
-        <v>168.0681545806386</v>
+        <v>4841453.207078122</v>
       </c>
       <c r="H82">
-        <v>1622.27187807631</v>
+        <v>3986112.647435472</v>
       </c>
       <c r="I82">
-        <v>-472.6036889353961</v>
+        <v>1115977.943530289</v>
       </c>
       <c r="J82">
-        <v>511.3034596469961</v>
+        <v>4841913.25609149</v>
       </c>
       <c r="K82">
-        <v>2728.643030839828</v>
+        <v>3987252.929864001</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3318,31 +3312,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>63.20089576901213</v>
+        <v>1116414.580599652</v>
       </c>
       <c r="G83">
-        <v>180.1211509915879</v>
+        <v>4841469.719891831</v>
       </c>
       <c r="H83">
-        <v>1635.871594045922</v>
+        <v>3986127.241368483</v>
       </c>
       <c r="I83">
-        <v>-402.1686546546375</v>
+        <v>1116035.057193326</v>
       </c>
       <c r="J83">
-        <v>475.0629767870591</v>
+        <v>4841864.604467341</v>
       </c>
       <c r="K83">
-        <v>2629.138381751082</v>
+        <v>3987147.71208812</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3353,31 +3347,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>61.74932817178865</v>
+        <v>1116413.347570649</v>
       </c>
       <c r="G84">
-        <v>192.1741474025373</v>
+        <v>4841486.232705542</v>
       </c>
       <c r="H84">
-        <v>1648.840310008976</v>
+        <v>3986141.158171776</v>
       </c>
       <c r="I84">
-        <v>-329.9992224537588</v>
+        <v>1116093.577227771</v>
       </c>
       <c r="J84">
-        <v>438.8224939271223</v>
+        <v>4841815.952843189</v>
       </c>
       <c r="K84">
-        <v>2515.307625370708</v>
+        <v>3987027.345661798</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3388,31 +3382,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>60.39333197123759</v>
+        <v>1116412.195724433</v>
       </c>
       <c r="G85">
-        <v>204.2271438134867</v>
+        <v>4841502.745519252</v>
       </c>
       <c r="H85">
-        <v>1661.233993102525</v>
+        <v>3986154.457904008</v>
       </c>
       <c r="I85">
-        <v>-256.0526843795936</v>
+        <v>1116153.538264227</v>
       </c>
       <c r="J85">
-        <v>402.5820110671853</v>
+        <v>4841767.301219039</v>
       </c>
       <c r="K85">
-        <v>2387.150761698703</v>
+        <v>3986891.830585035</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3423,31 +3417,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>59.1228658697796</v>
+        <v>1116411.11653146</v>
       </c>
       <c r="G86">
-        <v>216.2801402244361</v>
+        <v>4841519.258332962</v>
       </c>
       <c r="H86">
-        <v>1673.10147950299</v>
+        <v>3986167.192971558</v>
       </c>
       <c r="I86">
-        <v>-180.2852808349193</v>
+        <v>1116214.975786042</v>
       </c>
       <c r="J86">
-        <v>366.3415282072485</v>
+        <v>4841718.649594888</v>
       </c>
       <c r="K86">
-        <v>2244.667790735069</v>
+        <v>3986741.166857831</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3458,31 +3452,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>57.92930532818839</v>
+        <v>1116410.102665645</v>
       </c>
       <c r="G87">
-        <v>228.3331366353854</v>
+        <v>4841535.771146673</v>
       </c>
       <c r="H87">
-        <v>1684.485636671047</v>
+        <v>3986179.409375743</v>
       </c>
       <c r="I87">
-        <v>-102.6521746826904</v>
+        <v>1116277.926150311</v>
       </c>
       <c r="J87">
-        <v>330.1010453473115</v>
+        <v>4841669.997970738</v>
       </c>
       <c r="K87">
-        <v>2087.858712479805</v>
+        <v>3986575.354480187</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3493,31 +3487,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>56.80519562574633</v>
+        <v>1116409.147794602</v>
       </c>
       <c r="G88">
-        <v>240.3861330463348</v>
+        <v>4841552.283960382</v>
       </c>
       <c r="H88">
-        <v>1695.42429805134</v>
+        <v>3986191.14771585</v>
       </c>
       <c r="I88">
-        <v>-23.10742471261133</v>
+        <v>1116342.426609387</v>
       </c>
       <c r="J88">
-        <v>293.8605624873745</v>
+        <v>4841621.346346587</v>
       </c>
       <c r="K88">
-        <v>1916.723526932911</v>
+        <v>3986394.393452102</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,31 +3522,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>55.74405554408283</v>
+        <v>1116408.246412882</v>
       </c>
       <c r="G89">
-        <v>252.4391294572842</v>
+        <v>4841568.796774093</v>
       </c>
       <c r="H89">
-        <v>1705.951021677455</v>
+        <v>3986202.444003197</v>
       </c>
       <c r="I89">
-        <v>58.39604154565308</v>
+        <v>1116408.515332928</v>
       </c>
       <c r="J89">
-        <v>257.6200796274376</v>
+        <v>4841572.694722436</v>
       </c>
       <c r="K89">
-        <v>1731.262234094389</v>
+        <v>3986198.283773577</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3563,31 +3557,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>54.74021985502394</v>
+        <v>1116407.393708177</v>
       </c>
       <c r="G90">
-        <v>264.4921258682336</v>
+        <v>4841585.309587804</v>
       </c>
       <c r="H90">
-        <v>1716.095711051688</v>
+        <v>3986213.330327401</v>
       </c>
       <c r="I90">
-        <v>141.9064556787131</v>
+        <v>1116476.231430485</v>
       </c>
       <c r="J90">
-        <v>221.3795967675007</v>
+        <v>4841524.043098287</v>
       </c>
       <c r="K90">
-        <v>1531.474833964236</v>
+        <v>3985987.025444611</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3598,31 +3592,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>53.78871186547477</v>
+        <v>1116406.585453053</v>
       </c>
       <c r="G91">
-        <v>276.545122279183</v>
+        <v>4841601.822401513</v>
       </c>
       <c r="H91">
-        <v>1725.885127256146</v>
+        <v>3986223.835405936</v>
       </c>
       <c r="I91">
-        <v>227.4732369316282</v>
+        <v>1116545.614974648</v>
       </c>
       <c r="J91">
-        <v>185.1391139075638</v>
+        <v>4841475.391474136</v>
       </c>
       <c r="K91">
-        <v>1317.361326542455</v>
+        <v>3985760.618465204</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3633,31 +3627,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>52.8851394703945</v>
+        <v>1116405.817916652</v>
       </c>
       <c r="G92">
-        <v>288.5981186901324</v>
+        <v>4841618.335215224</v>
       </c>
       <c r="H92">
-        <v>1735.343314388814</v>
+        <v>3986233.985040658</v>
       </c>
       <c r="I92">
-        <v>315.1470214529001</v>
+        <v>1116616.707024754</v>
       </c>
       <c r="J92">
-        <v>148.8986310476268</v>
+        <v>4841426.739849985</v>
       </c>
       <c r="K92">
-        <v>1088.921711829043</v>
+        <v>3985519.062835356</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,31 +3662,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>52.02560975745183</v>
+        <v>1116405.087792153</v>
       </c>
       <c r="G93">
-        <v>300.6511151010817</v>
+        <v>4841634.848028935</v>
       </c>
       <c r="H93">
-        <v>1744.491955353466</v>
+        <v>3986243.802499616</v>
       </c>
       <c r="I93">
-        <v>404.9796922596064</v>
+        <v>1116689.54965119</v>
       </c>
       <c r="J93">
-        <v>112.6581481876898</v>
+        <v>4841378.088225834</v>
       </c>
       <c r="K93">
-        <v>846.1559898240021</v>
+        <v>3985262.358555068</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,31 +3697,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>51.20665837449123</v>
+        <v>1116404.392136773</v>
       </c>
       <c r="G94">
-        <v>312.7041115120311</v>
+        <v>4841651.360842645</v>
       </c>
       <c r="H94">
-        <v>1753.350671252512</v>
+        <v>3986253.308838327</v>
       </c>
       <c r="I94">
-        <v>497.0244099403847</v>
+        <v>1116764.185960288</v>
       </c>
       <c r="J94">
-        <v>76.41766532775299</v>
+        <v>4841329.436601684</v>
       </c>
       <c r="K94">
-        <v>589.064160527332</v>
+        <v>3984990.505624339</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3738,31 +3732,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>50.42519073636657</v>
+        <v>1116403.72832183</v>
       </c>
       <c r="G95">
-        <v>324.7571079229805</v>
+        <v>4841667.873656356</v>
       </c>
       <c r="H95">
-        <v>1761.937274781508</v>
+        <v>3986262.523171699</v>
       </c>
       <c r="I95">
-        <v>591.3356441144666</v>
+        <v>1116840.660119833</v>
       </c>
       <c r="J95">
-        <v>40.17718246781599</v>
+        <v>4841280.784977534</v>
       </c>
       <c r="K95">
-        <v>317.6462239390316</v>
+        <v>3984703.50404317</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,31 +3767,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>49.67843279576421</v>
+        <v>1116403.093990916</v>
       </c>
       <c r="G96">
-        <v>336.8101043339299</v>
+        <v>4841684.386470066</v>
       </c>
       <c r="H96">
-        <v>1770.267985853674</v>
+        <v>3986271.46290541</v>
       </c>
       <c r="I96">
-        <v>687.96920566534</v>
+        <v>1116919.017385203</v>
       </c>
       <c r="J96">
-        <v>3.936699607878988</v>
+        <v>4841232.133353382</v>
       </c>
       <c r="K96">
-        <v>31.90218005910188</v>
+        <v>3984401.35381156</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3808,31 +3802,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>48.96388959260566</v>
+        <v>1116402.487024699</v>
       </c>
       <c r="G97">
-        <v>348.8631007448793</v>
+        <v>4841700.899283776</v>
       </c>
       <c r="H97">
-        <v>1778.357616015116</v>
+        <v>3986280.143933816</v>
       </c>
       <c r="I97">
-        <v>786.9822797681564</v>
+        <v>1116999.304126145</v>
       </c>
       <c r="J97">
-        <v>-32.30378325205784</v>
+        <v>4841183.481729232</v>
       </c>
       <c r="K97">
-        <v>-268.1679711124565</v>
+        <v>3984084.054929509</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3843,31 +3837,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>48.27931017037556</v>
+        <v>1116401.90551111</v>
       </c>
       <c r="G98">
-        <v>360.9160971558286</v>
+        <v>4841717.412097487</v>
       </c>
       <c r="H98">
-        <v>1786.219726919254</v>
+        <v>3986288.580810007</v>
       </c>
       <c r="I98">
-        <v>888.4334597303972</v>
+        <v>1117081.56785422</v>
       </c>
       <c r="J98">
-        <v>-68.54426611199484</v>
+        <v>4841134.830105082</v>
       </c>
       <c r="K98">
-        <v>-582.5642295756453</v>
+        <v>3983751.607397018</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3878,31 +3872,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>47.62265773522616</v>
+        <v>1116401.347720003</v>
       </c>
       <c r="G99">
-        <v>372.969093566778</v>
+        <v>4841733.924911196</v>
       </c>
       <c r="H99">
-        <v>1793.866767119652</v>
+        <v>3986296.786892594</v>
       </c>
       <c r="I99">
-        <v>992.3827816658347</v>
+        <v>1117165.857250917</v>
       </c>
       <c r="J99">
-        <v>-104.7847489719318</v>
+        <v>4841086.178480931</v>
       </c>
       <c r="K99">
-        <v>-911.2865953304644</v>
+        <v>3983404.011214086</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3913,31 +3907,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>46.99208415662709</v>
+        <v>1116400.812081489</v>
       </c>
       <c r="G100">
-        <v>385.0220899777274</v>
+        <v>4841750.437724907</v>
       </c>
       <c r="H100">
-        <v>1801.310190646281</v>
+        <v>3986304.774472964</v>
       </c>
       <c r="I100">
-        <v>1098.89176002231</v>
+        <v>1117252.222196463</v>
       </c>
       <c r="J100">
-        <v>-141.0252318318688</v>
+        <v>4841037.52685678</v>
       </c>
       <c r="K100">
-        <v>-1254.335068376912</v>
+        <v>3983041.266380714</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,31 +3942,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>46.38590808244175</v>
+        <v>1116400.297167349</v>
       </c>
       <c r="G101">
-        <v>397.0750863886767</v>
+        <v>4841766.950538618</v>
       </c>
       <c r="H101">
-        <v>1808.560560200917</v>
+        <v>3986312.554886013</v>
       </c>
       <c r="I101">
-        <v>1208.023423984349</v>
+        <v>1117340.71379934</v>
       </c>
       <c r="J101">
-        <v>-177.2657146918055</v>
+        <v>4840988.87523263</v>
       </c>
       <c r="K101">
-        <v>-1611.709648714987</v>
+        <v>3982663.3728969</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,31 +3977,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>45.80259607827134</v>
+        <v>1116399.801675013</v>
       </c>
       <c r="G102">
-        <v>409.1280827996262</v>
+        <v>4841783.463352327</v>
       </c>
       <c r="H102">
-        <v>1815.627637305359</v>
+        <v>3986320.138606884</v>
       </c>
       <c r="I102">
-        <v>1319.842354772164</v>
+        <v>1117431.384426526</v>
       </c>
       <c r="J102">
-        <v>-213.5061975517425</v>
+        <v>4840940.22360848</v>
       </c>
       <c r="K102">
-        <v>-1983.410336344694</v>
+        <v>3982270.330762647</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4018,31 +4012,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>45.24074630934768</v>
+        <v>1116399.324413698</v>
       </c>
       <c r="G103">
-        <v>421.1810792105755</v>
+        <v>4841799.976166038</v>
       </c>
       <c r="H103">
-        <v>1822.520461333254</v>
+        <v>3986327.535335782</v>
       </c>
       <c r="I103">
-        <v>1434.414723859099</v>
+        <v>1117524.287734491</v>
       </c>
       <c r="J103">
-        <v>-249.7466804116795</v>
+        <v>4840891.571984328</v>
       </c>
       <c r="K103">
-        <v>-2369.437131266031</v>
+        <v>3981862.139977952</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,31 +4047,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>44.69907436965859</v>
+        <v>1116398.864292369</v>
       </c>
       <c r="G104">
-        <v>433.2340756215249</v>
+        <v>4841816.488979748</v>
       </c>
       <c r="H104">
-        <v>1829.247419030955</v>
+        <v>3986334.754072572</v>
       </c>
       <c r="I104">
-        <v>1551.808332130153</v>
+        <v>1117619.478700946</v>
       </c>
       <c r="J104">
-        <v>-285.9871632716165</v>
+        <v>4840842.920360178</v>
       </c>
       <c r="K104">
-        <v>-2769.790033478997</v>
+        <v>3981438.800542817</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4088,31 +4082,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>44.17640093224408</v>
+        <v>1116398.420309251</v>
       </c>
       <c r="G105">
-        <v>445.2870720324743</v>
+        <v>4841833.001793458</v>
       </c>
       <c r="H105">
-        <v>1835.816305868688</v>
+        <v>3986341.803182618</v>
       </c>
       <c r="I105">
-        <v>1672.092650004743</v>
+        <v>1117717.013657375</v>
       </c>
       <c r="J105">
-        <v>-322.2276461315535</v>
+        <v>4840794.268736028</v>
       </c>
       <c r="K105">
-        <v>-3184.469042983593</v>
+        <v>3981000.312457241</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4123,31 +4117,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>43.67164095041588</v>
+        <v>1116397.991542656</v>
       </c>
       <c r="G106">
-        <v>457.3400684434237</v>
+        <v>4841849.514607169</v>
       </c>
       <c r="H106">
-        <v>1842.234380347698</v>
+        <v>3986348.690455059</v>
       </c>
       <c r="I106">
-        <v>1795.338858547449</v>
+        <v>1117816.950322376</v>
       </c>
       <c r="J106">
-        <v>-358.4681289914902</v>
+        <v>4840745.617111878</v>
       </c>
       <c r="K106">
-        <v>-3613.474159779815</v>
+        <v>3980546.675721224</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4158,31 +4152,31 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>43.18379418488847</v>
+        <v>1116397.577142932</v>
       </c>
       <c r="G107">
-        <v>469.393064854373</v>
+        <v>4841866.027420879</v>
       </c>
       <c r="H107">
-        <v>1848.508412212132</v>
+        <v>3986355.423154546</v>
       </c>
       <c r="I107">
-        <v>1921.619891591089</v>
+        <v>1117919.347835812</v>
       </c>
       <c r="J107">
-        <v>-394.7086118514272</v>
+        <v>4840696.965487726</v>
       </c>
       <c r="K107">
-        <v>-4056.80538386767</v>
+        <v>3980077.890334767</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4184,34 @@
         <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G108">
-        <v>-88.31150164432118</v>
+        <v>4841124.876120773</v>
       </c>
       <c r="H108">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I108">
-        <v>-1123.171442099822</v>
+        <v>1114861.037672011</v>
       </c>
       <c r="J108">
-        <v>2965.038328302126</v>
+        <v>4843223.083488758</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984368.881334518</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4219,34 @@
         <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G109">
-        <v>-88.31150164432118</v>
+        <v>4841124.876120773</v>
       </c>
       <c r="H109">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I109">
-        <v>-1100.99704712226</v>
+        <v>1114890.651659982</v>
       </c>
       <c r="J109">
-        <v>2892.911416376916</v>
+        <v>4843174.431902443</v>
       </c>
       <c r="K109">
-        <v>364.1099652944237</v>
+        <v>3984672.677216711</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4254,34 @@
         <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G110">
-        <v>-88.31150164432118</v>
+        <v>4841124.876120773</v>
       </c>
       <c r="H110">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I110">
-        <v>-1078.276628068445</v>
+        <v>1114920.994865161</v>
       </c>
       <c r="J110">
-        <v>2820.784504451706</v>
+        <v>4843125.780316127</v>
       </c>
       <c r="K110">
-        <v>710.0637386991042</v>
+        <v>3984961.324443668</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4289,34 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G111">
-        <v>-88.31150164432118</v>
+        <v>4841124.876120773</v>
       </c>
       <c r="H111">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I111">
-        <v>-1054.996739597831</v>
+        <v>1114952.085243853</v>
       </c>
       <c r="J111">
-        <v>2748.657592526496</v>
+        <v>4843077.128729811</v>
       </c>
       <c r="K111">
-        <v>1037.861320214044</v>
+        <v>3985234.823015388</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4324,34 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G112">
-        <v>-88.31150164432118</v>
+        <v>4841124.876120773</v>
       </c>
       <c r="H112">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I112">
-        <v>-1031.143605290734</v>
+        <v>1114983.941194518</v>
       </c>
       <c r="J112">
-        <v>2676.530680601286</v>
+        <v>4843028.477143496</v>
       </c>
       <c r="K112">
-        <v>1347.502709839241</v>
+        <v>3985493.172931871</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4359,34 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G113">
-        <v>-88.31150164432118</v>
+        <v>4841124.876120773</v>
       </c>
       <c r="H113">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I113">
-        <v>-1006.703109495805</v>
+        <v>1115016.58156866</v>
       </c>
       <c r="J113">
-        <v>2604.403768676076</v>
+        <v>4842979.825557181</v>
       </c>
       <c r="K113">
-        <v>1638.987907574697</v>
+        <v>3985736.374193119</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4394,34 @@
         <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G114">
-        <v>-88.31150164432118</v>
+        <v>4841124.876120773</v>
       </c>
       <c r="H114">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I114">
-        <v>-981.6607889767698</v>
+        <v>1115050.025681988</v>
       </c>
       <c r="J114">
-        <v>2532.276856750867</v>
+        <v>4842931.173970865</v>
       </c>
       <c r="K114">
-        <v>1912.316913420411</v>
+        <v>3985964.426799129</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4429,34 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G115">
-        <v>-88.31150164432118</v>
+        <v>4841124.876120773</v>
       </c>
       <c r="H115">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I115">
-        <v>-956.0018243534661</v>
+        <v>1115084.293325838</v>
       </c>
       <c r="J115">
-        <v>2460.149944825656</v>
+        <v>4842882.522384549</v>
       </c>
       <c r="K115">
-        <v>2167.489727376384</v>
+        <v>3986177.330749904</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4464,34 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>195.0748223470511</v>
+        <v>1116580.153215917</v>
       </c>
       <c r="G116">
-        <v>-73.7287869176123</v>
+        <v>4841141.388941051</v>
       </c>
       <c r="H116">
-        <v>268.8043995127464</v>
+        <v>3985234.27509557</v>
       </c>
       <c r="I116">
-        <v>-929.7110313321282</v>
+        <v>1115119.404778892</v>
       </c>
       <c r="J116">
-        <v>2388.023032900447</v>
+        <v>4842833.870798235</v>
       </c>
       <c r="K116">
-        <v>2404.506349442613</v>
+        <v>3986375.086045441</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4499,34 @@
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>151.4008188792594</v>
+        <v>1116531.472580238</v>
       </c>
       <c r="G117">
-        <v>-59.1460721909034</v>
+        <v>4841157.901761328</v>
       </c>
       <c r="H117">
-        <v>331.1652113998957</v>
+        <v>3985433.529799671</v>
       </c>
       <c r="I117">
-        <v>-902.7728517197257</v>
+        <v>1115155.380819176</v>
       </c>
       <c r="J117">
-        <v>2315.896120975237</v>
+        <v>4842785.219211919</v>
       </c>
       <c r="K117">
-        <v>2623.3667796191</v>
+        <v>3986557.692685742</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4534,34 @@
         <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>125.7445327664519</v>
+        <v>1116502.875148861</v>
       </c>
       <c r="G118">
-        <v>-44.56335746419453</v>
+        <v>4841174.414581605</v>
       </c>
       <c r="H118">
-        <v>368.310500212879</v>
+        <v>3985552.216091706</v>
       </c>
       <c r="I118">
-        <v>-875.1713442170388</v>
+        <v>1115192.242736354</v>
       </c>
       <c r="J118">
-        <v>2243.769209050027</v>
+        <v>4842736.567625603</v>
       </c>
       <c r="K118">
-        <v>2824.071017905847</v>
+        <v>3986725.150670807</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4569,34 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>109.5484027316663</v>
+        <v>1116484.822352162</v>
       </c>
       <c r="G119">
-        <v>-29.98064273748565</v>
+        <v>4841190.927401884</v>
       </c>
       <c r="H119">
-        <v>394.855727573424</v>
+        <v>3985637.033162924</v>
       </c>
       <c r="I119">
-        <v>-846.890174985019</v>
+        <v>1115230.012344331</v>
       </c>
       <c r="J119">
-        <v>2171.642297124817</v>
+        <v>4842687.916039288</v>
       </c>
       <c r="K119">
-        <v>3006.619064302853</v>
+        <v>3986877.460000636</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4604,34 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>98.25328738935828</v>
+        <v>1116472.232405025</v>
       </c>
       <c r="G120">
-        <v>-15.39792801077676</v>
+        <v>4841207.44022216</v>
       </c>
       <c r="H120">
-        <v>415.5264818974644</v>
+        <v>3985703.08017084</v>
       </c>
       <c r="I120">
-        <v>-817.9126079788598</v>
+        <v>1115268.711994157</v>
       </c>
       <c r="J120">
-        <v>2099.515385199607</v>
+        <v>4842639.264452972</v>
       </c>
       <c r="K120">
-        <v>3171.010918810116</v>
+        <v>3987014.620675228</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4639,34 @@
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>89.82679309388534</v>
+        <v>1116462.839927435</v>
       </c>
       <c r="G121">
-        <v>-0.815213284067889</v>
+        <v>4841223.953042438</v>
       </c>
       <c r="H121">
-        <v>432.4574330587087</v>
+        <v>3985757.177793397</v>
       </c>
       <c r="I121">
-        <v>-788.2214950440467</v>
+        <v>1115308.364587256</v>
       </c>
       <c r="J121">
-        <v>2027.388473274397</v>
+        <v>4842590.612866658</v>
       </c>
       <c r="K121">
-        <v>3317.246581427636</v>
+        <v>3987136.632694583</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4674,34 @@
         <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>83.23845127986772</v>
+        <v>1116455.49632158</v>
       </c>
       <c r="G122">
-        <v>13.767501442641</v>
+        <v>4841240.465862715</v>
       </c>
       <c r="H122">
-        <v>446.796712792749</v>
+        <v>3985802.994530767</v>
       </c>
       <c r="I122">
-        <v>-757.7992657685369</v>
+        <v>1115348.993588981</v>
       </c>
       <c r="J122">
-        <v>1955.261561349187</v>
+        <v>4842541.961280341</v>
       </c>
       <c r="K122">
-        <v>3445.326052155415</v>
+        <v>3987243.496058702</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4709,34 @@
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>77.9080030394302</v>
+        <v>1116449.554809738</v>
       </c>
       <c r="G123">
-        <v>28.35021616934988</v>
+        <v>4841256.978682993</v>
       </c>
       <c r="H123">
-        <v>459.2334263899883</v>
+        <v>3985842.732205964</v>
       </c>
       <c r="I123">
-        <v>-726.6279170850552</v>
+        <v>1115390.623042496</v>
       </c>
       <c r="J123">
-        <v>1883.134649423977</v>
+        <v>4842493.309694027</v>
       </c>
       <c r="K123">
-        <v>3555.249330993452</v>
+        <v>3987335.210767584</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4744,34 @@
         <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>73.48183165475552</v>
+        <v>1116444.621237829</v>
       </c>
       <c r="G124">
-        <v>42.93293089605876</v>
+        <v>4841273.49150327</v>
       </c>
       <c r="H124">
-        <v>470.2138138375433</v>
+        <v>3985877.816640973</v>
       </c>
       <c r="I124">
-        <v>-694.6890026173579</v>
+        <v>1115433.277583004</v>
       </c>
       <c r="J124">
-        <v>1811.007737498767</v>
+        <v>4842444.658107711</v>
       </c>
       <c r="K124">
-        <v>3647.016417941747</v>
+        <v>3987411.77682123</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4779,34 @@
         <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>69.73098443426149</v>
+        <v>1116440.440406842</v>
       </c>
       <c r="G125">
-        <v>57.51564562276766</v>
+        <v>4841290.004323548</v>
       </c>
       <c r="H125">
-        <v>480.0434701741595</v>
+        <v>3985909.224270308</v>
       </c>
       <c r="I125">
-        <v>-661.9636217641558</v>
+        <v>1115476.982452332</v>
       </c>
       <c r="J125">
-        <v>1738.880825573558</v>
+        <v>4842396.006521396</v>
       </c>
       <c r="K125">
-        <v>3720.627313000301</v>
+        <v>3987473.19421964</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4814,34 @@
         <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>66.49999548783461</v>
+        <v>1116436.83902883</v>
       </c>
       <c r="G126">
-        <v>72.09836034947652</v>
+        <v>4841306.517143825</v>
       </c>
       <c r="H126">
-        <v>488.9408703295726</v>
+        <v>3985937.653163095</v>
       </c>
       <c r="I126">
-        <v>-628.432408514242</v>
+        <v>1115521.763513859</v>
       </c>
       <c r="J126">
-        <v>1666.753913648348</v>
+        <v>4842347.35493508</v>
       </c>
       <c r="K126">
-        <v>3776.082016169113</v>
+        <v>3987519.462962813</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4849,34 @@
         <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>63.6791751868013</v>
+        <v>1116433.694839736</v>
       </c>
       <c r="G127">
-        <v>86.68107507618539</v>
+        <v>4841323.029964103</v>
       </c>
       <c r="H127">
-        <v>497.0676294472713</v>
+        <v>3985963.619710584</v>
       </c>
       <c r="I127">
-        <v>-594.0755199861998</v>
+        <v>1115567.647267828</v>
       </c>
       <c r="J127">
-        <v>1594.627001723138</v>
+        <v>4842298.703348764</v>
       </c>
       <c r="K127">
-        <v>3813.380527448182</v>
+        <v>3987550.583050749</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4884,34 @@
         <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>61.18865746971538</v>
+        <v>1116430.918817938</v>
       </c>
       <c r="G128">
-        <v>101.2637898028943</v>
+        <v>4841339.54278438</v>
       </c>
       <c r="H128">
-        <v>504.546668302521</v>
+        <v>3985987.516668127</v>
       </c>
       <c r="I128">
-        <v>-558.8726246859121</v>
+        <v>1115614.660867026</v>
       </c>
       <c r="J128">
-        <v>1522.500089797928</v>
+        <v>4842250.05176245</v>
       </c>
       <c r="K128">
-        <v>3832.52284683751</v>
+        <v>3987566.554483449</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4919,34 @@
         <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>58.96874216412858</v>
+        <v>1116428.444419448</v>
       </c>
       <c r="G129">
-        <v>115.8465045296032</v>
+        <v>4841356.055604658</v>
       </c>
       <c r="H129">
-        <v>511.4736579387242</v>
+        <v>3986009.649722982</v>
       </c>
       <c r="I129">
-        <v>-522.8028904749248</v>
+        <v>1115662.832132853</v>
       </c>
       <c r="J129">
-        <v>1450.373177872718</v>
+        <v>4842201.400176134</v>
       </c>
       <c r="K129">
-        <v>3833.508974337096</v>
+        <v>3987567.377260913</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4954,34 @@
         <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>56.97379767305607</v>
+        <v>1116426.220781626</v>
       </c>
       <c r="G130">
-        <v>130.4292192563121</v>
+        <v>4841372.568424935</v>
       </c>
       <c r="H130">
-        <v>517.9245228637094</v>
+        <v>3986030.261468451</v>
       </c>
       <c r="I130">
-        <v>-485.844972242539</v>
+        <v>1115712.189571784</v>
       </c>
       <c r="J130">
-        <v>1378.246265947508</v>
+        <v>4842152.748589818</v>
       </c>
       <c r="K130">
-        <v>3816.33890994694</v>
+        <v>3987553.05138314</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +4989,34 @@
         <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>55.16827229373124</v>
+        <v>1116424.208277248</v>
       </c>
       <c r="G131">
-        <v>145.011933983021</v>
+        <v>4841389.081245213</v>
       </c>
       <c r="H131">
-        <v>523.9605272411598</v>
+        <v>3986049.547655236</v>
       </c>
       <c r="I131">
-        <v>-447.9769992743417</v>
+        <v>1115762.762392241</v>
       </c>
       <c r="J131">
-        <v>1306.119354022298</v>
+        <v>4842104.097003503</v>
       </c>
       <c r="K131">
-        <v>3781.012653667043</v>
+        <v>3987523.57685013</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5024,34 @@
         <v>22</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>53.52400430546253</v>
+        <v>1116422.375516233</v>
       </c>
       <c r="G132">
-        <v>159.5946487097299</v>
+        <v>4841405.59406549</v>
       </c>
       <c r="H132">
-        <v>529.6318220993832</v>
+        <v>3986067.668525454</v>
       </c>
       <c r="I132">
-        <v>-409.1765623096991</v>
+        <v>1115814.580521875</v>
       </c>
       <c r="J132">
-        <v>1233.992442097088</v>
+        <v>4842055.445417188</v>
       </c>
       <c r="K132">
-        <v>3727.530205497403</v>
+        <v>3987478.953661884</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5059,34 @@
         <v>22</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>52.01835946418567</v>
+        <v>1116420.69726963</v>
       </c>
       <c r="G133">
-        <v>174.1773634364387</v>
+        <v>4841422.106885768</v>
       </c>
       <c r="H133">
-        <v>534.979980611708</v>
+        <v>3986084.75691333</v>
       </c>
       <c r="I133">
-        <v>-369.4207002805497</v>
+        <v>1115867.67462528</v>
       </c>
       <c r="J133">
-        <v>1161.865530171878</v>
+        <v>4842006.793830872</v>
       </c>
       <c r="K133">
-        <v>3655.891565438022</v>
+        <v>3987419.181818402</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5094,34 @@
         <v>22</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>50.63291131352856</v>
+        <v>1116419.152998637</v>
       </c>
       <c r="G134">
-        <v>188.7600781631476</v>
+        <v>4841438.619706045</v>
       </c>
       <c r="H134">
-        <v>540.0398492424902</v>
+        <v>3986100.924159977</v>
       </c>
       <c r="I134">
-        <v>-328.6858867236551</v>
+        <v>1115922.076122135</v>
       </c>
       <c r="J134">
-        <v>1089.738618246669</v>
+        <v>4841958.142244556</v>
       </c>
       <c r="K134">
-        <v>3566.096733488899</v>
+        <v>3987344.261319683</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5129,34 @@
         <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>49.35248690056006</v>
+        <v>1116417.72579093</v>
       </c>
       <c r="G135">
-        <v>203.3427928898565</v>
+        <v>4841455.132526323</v>
       </c>
       <c r="H135">
-        <v>544.8409249934009</v>
+        <v>3986116.264513945</v>
       </c>
       <c r="I135">
-        <v>-286.9480158582627</v>
+        <v>1115977.817205802</v>
       </c>
       <c r="J135">
-        <v>1017.611706321459</v>
+        <v>4841909.490658241</v>
       </c>
       <c r="K135">
-        <v>3458.145709650034</v>
+        <v>3987254.192165728</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5164,34 @@
         <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>48.16446413852807</v>
+        <v>1116416.40157747</v>
       </c>
       <c r="G136">
-        <v>217.9255076165653</v>
+        <v>4841471.6453466</v>
       </c>
       <c r="H136">
-        <v>549.4083972701919</v>
+        <v>3986130.858460199</v>
       </c>
       <c r="I136">
-        <v>-244.1823883209474</v>
+        <v>1116034.930862374</v>
       </c>
       <c r="J136">
-        <v>945.4847943962486</v>
+        <v>4841860.839071926</v>
       </c>
       <c r="K136">
-        <v>3332.038493921426</v>
+        <v>3987148.974356536</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5199,34 @@
         <v>22</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>47.05824602831895</v>
+        <v>1116415.168546455</v>
       </c>
       <c r="G137">
-        <v>232.5082223432742</v>
+        <v>4841488.158166878</v>
       </c>
       <c r="H137">
-        <v>553.7639478389817</v>
+        <v>3986144.77527612</v>
       </c>
       <c r="I137">
-        <v>-200.3636965491816</v>
+        <v>1116093.450890195</v>
       </c>
       <c r="J137">
-        <v>873.3578824710389</v>
+        <v>4841812.18748561</v>
       </c>
       <c r="K137">
-        <v>3187.775086303078</v>
+        <v>3987028.607892108</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5234,34 @@
         <v>22</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>46.02486146028814</v>
+        <v>1116414.016698361</v>
       </c>
       <c r="G138">
-        <v>247.0909370699831</v>
+        <v>4841504.670987155</v>
       </c>
       <c r="H138">
-        <v>557.9263732943077</v>
+        <v>3986158.075020421</v>
       </c>
       <c r="I138">
-        <v>-155.4660098049935</v>
+        <v>1116153.411919863</v>
       </c>
       <c r="J138">
-        <v>801.2309705458289</v>
+        <v>4841763.535899295</v>
       </c>
       <c r="K138">
-        <v>3025.355486794987</v>
+        <v>3986893.092772443</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5269,34 @@
         <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>45.05665811066265</v>
+        <v>1116412.937503627</v>
       </c>
       <c r="G139">
-        <v>261.673651796692</v>
+        <v>4841521.183807433</v>
       </c>
       <c r="H139">
-        <v>561.9120752935577</v>
+        <v>3986170.810099527</v>
       </c>
       <c r="I139">
-        <v>-109.4627588298438</v>
+        <v>1116214.849434725</v>
       </c>
       <c r="J139">
-        <v>729.1040586206192</v>
+        <v>4841714.88431298</v>
       </c>
       <c r="K139">
-        <v>2844.779695397156</v>
+        <v>3986742.428997542</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5304,34 @@
         <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>44.14706334617169</v>
+        <v>1116411.923636159</v>
       </c>
       <c r="G140">
-        <v>276.2563665234009</v>
+        <v>4841537.69662771</v>
       </c>
       <c r="H140">
-        <v>565.7354508975716</v>
+        <v>3986183.026514797</v>
       </c>
       <c r="I140">
-        <v>-62.32672012164586</v>
+        <v>1116277.799791868</v>
       </c>
       <c r="J140">
-        <v>656.9771466954093</v>
+        <v>4841666.232726664</v>
       </c>
       <c r="K140">
-        <v>2646.047712109581</v>
+        <v>3986576.616567404</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5339,34 @@
         <v>22</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>43.29039603485822</v>
+        <v>1116410.968763558</v>
       </c>
       <c r="G141">
-        <v>290.8390812501098</v>
+        <v>4841554.209447987</v>
       </c>
       <c r="H141">
-        <v>569.4092064900652</v>
+        <v>3986194.764865556</v>
       </c>
       <c r="I141">
-        <v>-14.02999982461923</v>
+        <v>1116342.300243642</v>
       </c>
       <c r="J141">
-        <v>584.8502347701992</v>
+        <v>4841617.581140349</v>
       </c>
       <c r="K141">
-        <v>2429.159536932264</v>
+        <v>3986395.65548203</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5374,34 @@
         <v>22</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>42.48171693644748</v>
+        <v>1116410.067380368</v>
       </c>
       <c r="G142">
-        <v>305.4217959768187</v>
+        <v>4841570.722268265</v>
       </c>
       <c r="H142">
-        <v>572.9446125555417</v>
+        <v>3986206.061163153</v>
       </c>
       <c r="I142">
-        <v>35.45598277755387</v>
+        <v>1116408.388959702</v>
       </c>
       <c r="J142">
-        <v>512.7233228449895</v>
+        <v>4841568.929554033</v>
       </c>
       <c r="K142">
-        <v>2194.115169865207</v>
+        <v>3986199.545741419</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5409,34 @@
         <v>22</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>41.71670866467615</v>
+        <v>1116409.214674272</v>
       </c>
       <c r="G143">
-        <v>320.0045107035275</v>
+        <v>4841587.235088543</v>
       </c>
       <c r="H143">
-        <v>576.3517122021075</v>
+        <v>3986216.947497236</v>
       </c>
       <c r="I143">
-        <v>86.16051217503622</v>
+        <v>1116476.105049595</v>
       </c>
       <c r="J143">
-        <v>440.5964109197795</v>
+        <v>4841520.277967717</v>
       </c>
       <c r="K143">
-        <v>1940.914610908407</v>
+        <v>3985988.287345572</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5444,34 @@
         <v>22</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>40.99157855564004</v>
+        <v>1116408.40641783</v>
       </c>
       <c r="G144">
-        <v>334.5872254302364</v>
+        <v>4841603.747908819</v>
       </c>
       <c r="H144">
-        <v>579.6394931542786</v>
+        <v>3986227.452585303</v>
       </c>
       <c r="I144">
-        <v>138.1135939616203</v>
+        <v>1116545.488585903</v>
       </c>
       <c r="J144">
-        <v>368.4694989945698</v>
+        <v>4841471.626381403</v>
       </c>
       <c r="K144">
-        <v>1669.557860061866</v>
+        <v>3985761.880294488</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5479,34 @@
         <v>22</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>40.30297945130985</v>
+        <v>1116407.638880177</v>
       </c>
       <c r="G145">
-        <v>349.1699401569453</v>
+        <v>4841620.260729098</v>
       </c>
       <c r="H145">
-        <v>582.8160306359208</v>
+        <v>3986237.602229235</v>
       </c>
       <c r="I145">
-        <v>191.3459725912397</v>
+        <v>1116616.580627962</v>
       </c>
       <c r="J145">
-        <v>296.3425870693598</v>
+        <v>4841422.974795086</v>
       </c>
       <c r="K145">
-        <v>1380.044917325582</v>
+        <v>3985520.324588168</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5514,34 @@
         <v>22</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>39.64794462100726</v>
+        <v>1116406.908754487</v>
       </c>
       <c r="G146">
-        <v>363.7526548836541</v>
+        <v>4841636.773549375</v>
       </c>
       <c r="H146">
-        <v>585.8886068624929</v>
+        <v>3986247.419697102</v>
       </c>
       <c r="I146">
-        <v>245.8891495717235</v>
+        <v>1116689.423246152</v>
       </c>
       <c r="J146">
-        <v>224.2156751441498</v>
+        <v>4841374.323208772</v>
       </c>
       <c r="K146">
-        <v>1072.375782699556</v>
+        <v>3985263.620226611</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5549,34 @@
         <v>22</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>39.02383393339982</v>
+        <v>1116406.213097973</v>
       </c>
       <c r="G147">
-        <v>378.335369610363</v>
+        <v>4841653.286369652</v>
       </c>
       <c r="H147">
-        <v>588.8638115923027</v>
+        <v>3986256.926044439</v>
       </c>
       <c r="I147">
-        <v>301.7754021065483</v>
+        <v>1116764.059546802</v>
       </c>
       <c r="J147">
-        <v>152.0887632189401</v>
+        <v>4841325.671622456</v>
       </c>
       <c r="K147">
-        <v>746.5504561837895</v>
+        <v>3984991.767209818</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5584,34 @@
         <v>22</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>38.42828905110196</v>
+        <v>1116405.549281946</v>
       </c>
       <c r="G148">
-        <v>392.9180843370719</v>
+        <v>4841669.79918993</v>
       </c>
       <c r="H148">
-        <v>591.7476272291967</v>
+        <v>3986266.140386172</v>
       </c>
       <c r="I148">
-        <v>359.0378021956346</v>
+        <v>1116840.533697691</v>
       </c>
       <c r="J148">
-        <v>79.96185129373008</v>
+        <v>4841277.020036141</v>
       </c>
       <c r="K148">
-        <v>402.5689377782799</v>
+        <v>3984704.765537789</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5619,34 @@
         <v>22</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>37.85919591385029</v>
+        <v>1116404.914949998</v>
       </c>
       <c r="G149">
-        <v>407.5007990637808</v>
+        <v>4841686.312010208</v>
       </c>
       <c r="H149">
-        <v>594.5455012401756</v>
+        <v>3986275.080127995</v>
       </c>
       <c r="I149">
-        <v>417.7102362064722</v>
+        <v>1116918.89095419</v>
       </c>
       <c r="J149">
-        <v>7.834939368520053</v>
+        <v>4841228.368449825</v>
       </c>
       <c r="K149">
-        <v>40.43122748302871</v>
+        <v>3984402.615210523</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5654,34 @@
         <v>22</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>37.31465314961888</v>
+        <v>1116404.307982791</v>
       </c>
       <c r="G150">
-        <v>422.0835137904897</v>
+        <v>4841702.824830485</v>
       </c>
       <c r="H150">
-        <v>597.2624080913511</v>
+        <v>3986283.761164279</v>
       </c>
       <c r="I150">
-        <v>477.8274249271767</v>
+        <v>1116999.177686044</v>
       </c>
       <c r="J150">
-        <v>-64.29197255668963</v>
+        <v>4841179.716863509</v>
       </c>
       <c r="K150">
-        <v>-339.8626747019632</v>
+        <v>3984085.31622802</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5689,34 @@
         <v>22</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>36.79294533787387</v>
+        <v>1116403.726468254</v>
       </c>
       <c r="G151">
-        <v>436.6662285171985</v>
+        <v>4841719.337650763</v>
       </c>
       <c r="H151">
-        <v>599.9029024716707</v>
+        <v>3986292.198048125</v>
       </c>
       <c r="I151">
-        <v>539.4249441133292</v>
+        <v>1117081.441404807</v>
       </c>
       <c r="J151">
-        <v>-136.4188844818997</v>
+        <v>4841131.065277195</v>
       </c>
       <c r="K151">
-        <v>-738.3127687766981</v>
+        <v>3983752.868590281</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5724,34 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>36.29252026827007</v>
+        <v>1116403.168676236</v>
       </c>
       <c r="G152">
-        <v>451.2489432439075</v>
+        <v>4841735.850471039</v>
       </c>
       <c r="H152">
-        <v>602.4711652348684</v>
+        <v>3986300.404138159</v>
       </c>
       <c r="I152">
-        <v>602.5392455407626</v>
+        <v>1117165.730791963</v>
       </c>
       <c r="J152">
-        <v>-208.5457964071097</v>
+        <v>4841082.413690878</v>
       </c>
       <c r="K152">
-        <v>-1154.919054741176</v>
+        <v>3983405.272297306</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5759,34 @@
         <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>35.81196950797484</v>
+        <v>1116402.633036849</v>
       </c>
       <c r="G153">
-        <v>465.8316579706163</v>
+        <v>4841752.363291318</v>
       </c>
       <c r="H153">
-        <v>604.971043223369</v>
+        <v>3986308.391725778</v>
       </c>
       <c r="I153">
-        <v>667.2076785767539</v>
+        <v>1117252.095727733</v>
       </c>
       <c r="J153">
-        <v>-280.6727083323197</v>
+        <v>4841033.762104563</v>
       </c>
       <c r="K153">
-        <v>-1589.681532595395</v>
+        <v>3983042.527349094</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5794,34 @@
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>35.35001172349279</v>
+        <v>1116402.118121869</v>
       </c>
       <c r="G154">
-        <v>480.4143726973252</v>
+        <v>4841768.876111595</v>
       </c>
       <c r="H154">
-        <v>607.4060839265192</v>
+        <v>3986316.172145885</v>
       </c>
       <c r="I154">
-        <v>733.4685122823886</v>
+        <v>1117340.587320593</v>
       </c>
       <c r="J154">
-        <v>-352.7996202575291</v>
+        <v>4840985.110518248</v>
       </c>
       <c r="K154">
-        <v>-2042.600202339352</v>
+        <v>3982664.633745645</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5829,34 @@
         <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>34.90547830723995</v>
+        <v>1116401.622628725</v>
       </c>
       <c r="G155">
-        <v>494.9970874240341</v>
+        <v>4841785.388931872</v>
       </c>
       <c r="H155">
-        <v>609.7795657569197</v>
+        <v>3986323.755873639</v>
       </c>
       <c r="I155">
-        <v>801.3609580591761</v>
+        <v>1117431.257937516</v>
       </c>
       <c r="J155">
-        <v>-424.926532182739</v>
+        <v>4840936.458931933</v>
       </c>
       <c r="K155">
-        <v>-2513.675063973054</v>
+        <v>3982271.591486961</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5864,34 @@
         <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>34.4773009417566</v>
+        <v>1116401.145366631</v>
       </c>
       <c r="G156">
-        <v>509.579802150743</v>
+        <v>4841801.90175215</v>
       </c>
       <c r="H156">
-        <v>612.094524593307</v>
+        <v>3986331.152609249</v>
       </c>
       <c r="I156">
-        <v>870.9251928533116</v>
+        <v>1117524.161234964</v>
       </c>
       <c r="J156">
-        <v>-497.0534441079491</v>
+        <v>4840887.807345617</v>
       </c>
       <c r="K156">
-        <v>-3002.906117496499</v>
+        <v>3981863.400573039</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5899,34 @@
         <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>34.06450080029414</v>
+        <v>1116400.685244552</v>
       </c>
       <c r="G157">
-        <v>524.1625168774518</v>
+        <v>4841818.414572428</v>
       </c>
       <c r="H157">
-        <v>614.3537771291722</v>
+        <v>3986338.371352589</v>
       </c>
       <c r="I157">
-        <v>942.2023829313302</v>
+        <v>1117619.352190644</v>
       </c>
       <c r="J157">
-        <v>-569.1803560331591</v>
+        <v>4840839.155759302</v>
       </c>
       <c r="K157">
-        <v>-3510.293362909686</v>
+        <v>3981440.061003882</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5934,34 @@
         <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>33.66617913528927</v>
+        <v>1116400.24126071</v>
       </c>
       <c r="G158">
-        <v>538.7452316041608</v>
+        <v>4841834.927392704</v>
       </c>
       <c r="H158">
-        <v>616.5599414775867</v>
+        <v>3986345.420469032</v>
       </c>
       <c r="I158">
-        <v>1015.234708241208</v>
+        <v>1117716.887136032</v>
       </c>
       <c r="J158">
-        <v>-641.3072679583692</v>
+        <v>4840790.504172986</v>
       </c>
       <c r="K158">
-        <v>-4035.836800212614</v>
+        <v>3981001.572779486</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5969,34 @@
         <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>33.28150904877369</v>
+        <v>1116399.812493415</v>
       </c>
       <c r="G159">
-        <v>553.3279463308696</v>
+        <v>4841851.440212983</v>
       </c>
       <c r="H159">
-        <v>618.7154554102864</v>
+        <v>3986352.307747722</v>
       </c>
       <c r="I159">
-        <v>1090.065387373333</v>
+        <v>1117816.823789721</v>
       </c>
       <c r="J159">
-        <v>-713.4341798835784</v>
+        <v>4840741.852586671</v>
       </c>
       <c r="K159">
-        <v>-4579.53642940528</v>
+        <v>3980547.935899856</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,34 +6004,34 @@
         <v>22</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>32.90972827324134</v>
+        <v>1116399.398093015</v>
       </c>
       <c r="G160">
-        <v>567.9106610575785</v>
+        <v>4841867.95303326</v>
       </c>
       <c r="H160">
-        <v>620.82259254966</v>
+        <v>3986359.040453319</v>
       </c>
       <c r="I160">
-        <v>1166.738703136126</v>
+        <v>1117919.221291566</v>
       </c>
       <c r="J160">
-        <v>-785.5610918087884</v>
+        <v>4840693.201000355</v>
       </c>
       <c r="K160">
-        <v>-5141.392250487692</v>
+        <v>3980079.150364989</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6045,34 +6039,34 @@
         <v>22</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E161">
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G161">
-        <v>-81.58632990089144</v>
+        <v>4841127.045079677</v>
       </c>
       <c r="H161">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I161">
-        <v>-1691.338792325382</v>
+        <v>1114861.11347042</v>
       </c>
       <c r="J161">
-        <v>2510.076323179512</v>
+        <v>4843226.051377587</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984370.004804581</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6080,34 +6074,34 @@
         <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E162">
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G162">
-        <v>-81.58632990089144</v>
+        <v>4841127.045079677</v>
       </c>
       <c r="H162">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I162">
-        <v>-1657.947260973961</v>
+        <v>1114890.727460404</v>
       </c>
       <c r="J162">
-        <v>2449.016723322266</v>
+        <v>4843177.399761459</v>
       </c>
       <c r="K162">
-        <v>248.0183128115211</v>
+        <v>3984673.800772435</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6115,34 +6109,34 @@
         <v>22</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E163">
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G163">
-        <v>-81.58632990089144</v>
+        <v>4841127.045079677</v>
       </c>
       <c r="H163">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I163">
-        <v>-1623.733493882658</v>
+        <v>1114921.070667646</v>
       </c>
       <c r="J163">
-        <v>2387.957123465021</v>
+        <v>4843128.748145329</v>
       </c>
       <c r="K163">
-        <v>483.6692956711275</v>
+        <v>3984962.448080782</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6150,34 +6144,34 @@
         <v>22</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E164">
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G164">
-        <v>-81.58632990089144</v>
+        <v>4841127.045079677</v>
       </c>
       <c r="H164">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I164">
-        <v>-1588.67724425282</v>
+        <v>1114952.161048452</v>
       </c>
       <c r="J164">
-        <v>2326.897523607776</v>
+        <v>4843080.096529201</v>
       </c>
       <c r="K164">
-        <v>706.952948578821</v>
+        <v>3985235.94672962</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6185,34 +6179,34 @@
         <v>22</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E165">
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G165">
-        <v>-81.58632990089144</v>
+        <v>4841127.045079677</v>
       </c>
       <c r="H165">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I165">
-        <v>-1552.757766727005</v>
+        <v>1114984.017001283</v>
       </c>
       <c r="J165">
-        <v>2265.837923750531</v>
+        <v>4843031.444913073</v>
       </c>
       <c r="K165">
-        <v>917.8692715346</v>
+        <v>3985494.29671895</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6220,34 +6214,34 @@
         <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E166">
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G166">
-        <v>-81.58632990089144</v>
+        <v>4841127.045079677</v>
       </c>
       <c r="H166">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I166">
-        <v>-1515.95380511243</v>
+        <v>1115016.657377645</v>
       </c>
       <c r="J166">
-        <v>2204.778323893285</v>
+        <v>4842982.793296943</v>
       </c>
       <c r="K166">
-        <v>1116.418264538466</v>
+        <v>3985737.498048773</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6255,34 +6249,34 @@
         <v>22</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E167">
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G167">
-        <v>-81.58632990089144</v>
+        <v>4841127.045079677</v>
       </c>
       <c r="H167">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I167">
-        <v>-1478.243579802121</v>
+        <v>1115050.101493246</v>
       </c>
       <c r="J167">
-        <v>2143.71872403604</v>
+        <v>4842934.141680814</v>
       </c>
       <c r="K167">
-        <v>1302.599927590418</v>
+        <v>3985965.550719087</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6290,34 +6284,34 @@
         <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E168">
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G168">
-        <v>-81.58632990089144</v>
+        <v>4841127.045079677</v>
       </c>
       <c r="H168">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I168">
-        <v>-1439.604774886316</v>
+        <v>1115084.369139426</v>
       </c>
       <c r="J168">
-        <v>2082.659124178795</v>
+        <v>4842885.490064686</v>
       </c>
       <c r="K168">
-        <v>1476.414260690457</v>
+        <v>3986178.454729894</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6325,34 +6319,34 @@
         <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E169">
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>74.11749594602757</v>
+        <v>1116579.772854727</v>
       </c>
       <c r="G169">
-        <v>-68.11413033015336</v>
+        <v>4841143.557907353</v>
       </c>
       <c r="H169">
-        <v>884.18360077709</v>
+        <v>3985219.186142639</v>
       </c>
       <c r="I169">
-        <v>-1400.014524946508</v>
+        <v>1115119.480594867</v>
       </c>
       <c r="J169">
-        <v>2021.599524321549</v>
+        <v>4842836.838448557</v>
       </c>
       <c r="K169">
-        <v>1637.861263838581</v>
+        <v>3986376.210081193</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6360,34 +6354,34 @@
         <v>22</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E170">
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>57.5238231387188</v>
+        <v>1116531.092235631</v>
       </c>
       <c r="G170">
-        <v>-54.64193075941528</v>
+        <v>4841160.070735029</v>
       </c>
       <c r="H170">
-        <v>1089.308246436574</v>
+        <v>3985418.440092319</v>
       </c>
       <c r="I170">
-        <v>-1359.449401524294</v>
+        <v>1115155.456637597</v>
       </c>
       <c r="J170">
-        <v>1960.539924464304</v>
+        <v>4842788.186832429</v>
       </c>
       <c r="K170">
-        <v>1786.940937034791</v>
+        <v>3986558.816772984</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6395,34 +6389,34 @@
         <v>22</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E171">
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>47.77587279291205</v>
+        <v>1116502.494813996</v>
       </c>
       <c r="G171">
-        <v>-41.16973118867721</v>
+        <v>4841176.583562705</v>
       </c>
       <c r="H171">
-        <v>1211.490975864003</v>
+        <v>3985537.125934982</v>
       </c>
       <c r="I171">
-        <v>-1317.885399257038</v>
+        <v>1115192.318557282</v>
       </c>
       <c r="J171">
-        <v>1899.480324607059</v>
+        <v>4842739.535216299</v>
       </c>
       <c r="K171">
-        <v>1923.653280279089</v>
+        <v>3986726.274805267</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6430,34 +6424,34 @@
         <v>22</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E172">
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>41.6222513888185</v>
+        <v>1116484.442023446</v>
       </c>
       <c r="G172">
-        <v>-27.69753161793913</v>
+        <v>4841193.096390381</v>
       </c>
       <c r="H172">
-        <v>1298.806714570803</v>
+        <v>3985621.942685064</v>
       </c>
       <c r="I172">
-        <v>-1275.297921672131</v>
+        <v>1115230.088167826</v>
       </c>
       <c r="J172">
-        <v>1838.420724749813</v>
+        <v>4842690.883600171</v>
       </c>
       <c r="K172">
-        <v>2047.998293571472</v>
+        <v>3986878.584178041</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6465,34 +6459,34 @@
         <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>37.3307408006194</v>
+        <v>1116471.852080598</v>
       </c>
       <c r="G173">
-        <v>-14.22533204720105</v>
+        <v>4841209.609218055</v>
       </c>
       <c r="H173">
-        <v>1366.799433522347</v>
+        <v>3985687.989442912</v>
       </c>
       <c r="I173">
-        <v>-1231.661766631457</v>
+        <v>1115268.787820283</v>
       </c>
       <c r="J173">
-        <v>1777.361124892568</v>
+        <v>4842642.231984043</v>
       </c>
       <c r="K173">
-        <v>2159.975976911942</v>
+        <v>3987015.744891308</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6500,34 +6494,34 @@
         <v>22</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E174">
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>34.12914538574407</v>
+        <v>1116462.459606207</v>
       </c>
       <c r="G174">
-        <v>-0.7531324764629774</v>
+        <v>4841226.122045732</v>
       </c>
       <c r="H174">
-        <v>1422.490744339676</v>
+        <v>3985742.086860644</v>
       </c>
       <c r="I174">
-        <v>-1186.951111417433</v>
+        <v>1115308.440416079</v>
       </c>
       <c r="J174">
-        <v>1716.301525035323</v>
+        <v>4842593.580367913</v>
       </c>
       <c r="K174">
-        <v>2259.586330300498</v>
+        <v>3987137.756945068</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6535,34 +6529,34 @@
         <v>22</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E175">
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>31.62594486085646</v>
+        <v>1116455.116002854</v>
       </c>
       <c r="G175">
-        <v>12.7190670942751</v>
+        <v>4841242.634873407</v>
       </c>
       <c r="H175">
-        <v>1469.657219333299</v>
+        <v>3985787.903424542</v>
       </c>
       <c r="I175">
-        <v>-1141.139497451812</v>
+        <v>1115349.069420566</v>
       </c>
       <c r="J175">
-        <v>1655.241925178078</v>
+        <v>4842544.928751784</v>
       </c>
       <c r="K175">
-        <v>2346.82935373714</v>
+        <v>3987244.620339319</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6570,34 +6564,34 @@
         <v>22</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E176">
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>29.60067337221573</v>
+        <v>1116449.174493036</v>
       </c>
       <c r="G176">
-        <v>26.19126666501318</v>
+        <v>4841259.147701083</v>
       </c>
       <c r="H176">
-        <v>1510.565546094964</v>
+        <v>3985827.640949284</v>
       </c>
       <c r="I176">
-        <v>-1094.1998146382</v>
+        <v>1115390.698876911</v>
       </c>
       <c r="J176">
-        <v>1594.182325320832</v>
+        <v>4842496.277135656</v>
       </c>
       <c r="K176">
-        <v>2421.705047221868</v>
+        <v>3987336.335074062</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6605,34 +6599,34 @@
         <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E177">
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>27.91897639198518</v>
+        <v>1116444.240922808</v>
       </c>
       <c r="G177">
-        <v>39.66346623575125</v>
+        <v>4841275.660528759</v>
       </c>
       <c r="H177">
-        <v>1546.683550595282</v>
+        <v>3985862.725251455</v>
       </c>
       <c r="I177">
-        <v>-1046.104285319019</v>
+        <v>1115433.353420319</v>
       </c>
       <c r="J177">
-        <v>1533.122725463587</v>
+        <v>4842447.625519527</v>
       </c>
       <c r="K177">
-        <v>2484.213410754683</v>
+        <v>3987412.901149297</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6640,34 +6634,34 @@
         <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E178">
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>26.49386473321586</v>
+        <v>1116440.060093245</v>
       </c>
       <c r="G178">
-        <v>53.13566580648935</v>
+        <v>4841292.173356434</v>
       </c>
       <c r="H178">
-        <v>1579.016432608616</v>
+        <v>3985894.132761874</v>
       </c>
       <c r="I178">
-        <v>-996.8244478374281</v>
+        <v>1115477.058292618</v>
       </c>
       <c r="J178">
-        <v>1472.063125606342</v>
+        <v>4842398.973903399</v>
       </c>
       <c r="K178">
-        <v>2534.354444335584</v>
+        <v>3987474.318565024</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6675,34 +6669,34 @@
         <v>22</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E179">
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>25.26627007360153</v>
+        <v>1116436.45871646</v>
       </c>
       <c r="G179">
-        <v>66.60786537722741</v>
+        <v>4841308.68618411</v>
       </c>
       <c r="H179">
-        <v>1608.282826020435</v>
+        <v>3985922.561547023</v>
       </c>
       <c r="I179">
-        <v>-946.3311396944725</v>
+        <v>1115521.83935719</v>
       </c>
       <c r="J179">
-        <v>1411.003525749097</v>
+        <v>4842350.32228727</v>
       </c>
       <c r="K179">
-        <v>2572.128147964571</v>
+        <v>3987520.587321244</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6710,34 +6704,34 @@
         <v>22</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E180">
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>24.19451650381303</v>
+        <v>1116433.314528437</v>
       </c>
       <c r="G180">
-        <v>80.08006494796548</v>
+        <v>4841325.199011786</v>
       </c>
       <c r="H180">
-        <v>1635.014334702435</v>
+        <v>3985948.527996197</v>
       </c>
       <c r="I180">
-        <v>-894.5944802914887</v>
+        <v>1115567.723114278</v>
       </c>
       <c r="J180">
-        <v>1349.943925891851</v>
+        <v>4842301.670671141</v>
       </c>
       <c r="K180">
-        <v>2597.534521641644</v>
+        <v>3987551.707417955</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6745,34 +6739,34 @@
         <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E181">
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>23.24825939805888</v>
+        <v>1116430.538507585</v>
       </c>
       <c r="G181">
-        <v>93.55226451870358</v>
+        <v>4841341.711839461</v>
       </c>
       <c r="H181">
-        <v>1659.615284379499</v>
+        <v>3985972.424863262</v>
       </c>
       <c r="I181">
-        <v>-841.58385324756</v>
+        <v>1115614.736716673</v>
       </c>
       <c r="J181">
-        <v>1288.884326034606</v>
+        <v>4842253.019055013</v>
       </c>
       <c r="K181">
-        <v>2610.573565366804</v>
+        <v>3987567.678855158</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6780,34 +6774,34 @@
         <v>22</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E182">
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>22.40481603779973</v>
+        <v>1116428.064109938</v>
       </c>
       <c r="G182">
-        <v>107.0244640894417</v>
+        <v>4841358.224667137</v>
       </c>
       <c r="H182">
-        <v>1682.400367697279</v>
+        <v>3985994.557834316</v>
       </c>
       <c r="I182">
-        <v>-787.267888281557</v>
+        <v>1115662.907985775</v>
       </c>
       <c r="J182">
-        <v>1227.82472617736</v>
+        <v>4842204.367438884</v>
       </c>
       <c r="K182">
-        <v>2611.24527914005</v>
+        <v>3987568.501632854</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6815,34 +6809,34 @@
         <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E183">
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>21.64684897444102</v>
+        <v>1116425.840472873</v>
       </c>
       <c r="G183">
-        <v>120.4966636601797</v>
+        <v>4841374.737494813</v>
       </c>
       <c r="H183">
-        <v>1703.619324633397</v>
+        <v>3986015.169501744</v>
       </c>
       <c r="I183">
-        <v>-731.6144426480381</v>
+        <v>1115712.265428062</v>
       </c>
       <c r="J183">
-        <v>1166.765126320115</v>
+        <v>4842155.715822754</v>
       </c>
       <c r="K183">
-        <v>2599.549662961382</v>
+        <v>3987554.175751041</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6850,34 +6844,34 @@
         <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E184">
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>20.96085055407859</v>
+        <v>1116423.82796918</v>
       </c>
       <c r="G184">
-        <v>133.9688632309178</v>
+        <v>4841391.250322488</v>
       </c>
       <c r="H184">
-        <v>1723.473672606996</v>
+        <v>3986034.455615508</v>
       </c>
       <c r="I184">
-        <v>-674.5905821160244</v>
+        <v>1115762.838251957</v>
       </c>
       <c r="J184">
-        <v>1105.70552646287</v>
+        <v>4842107.064206626</v>
       </c>
       <c r="K184">
-        <v>2575.486716830801</v>
+        <v>3987524.701209721</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6885,34 +6879,34 @@
         <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E185">
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>20.33612090168975</v>
+        <v>1116421.99520879</v>
       </c>
       <c r="G185">
-        <v>147.4410628016559</v>
+        <v>4841407.763150164</v>
       </c>
       <c r="H185">
-        <v>1742.128374382347</v>
+        <v>3986052.576417116</v>
       </c>
       <c r="I185">
-        <v>-616.1625614793998</v>
+        <v>1115814.656385114</v>
       </c>
       <c r="J185">
-        <v>1044.645926605624</v>
+        <v>4842058.412590497</v>
       </c>
       <c r="K185">
-        <v>2539.056440748306</v>
+        <v>3987480.078008892</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6920,34 +6914,34 @@
         <v>22</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E186">
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>19.76406027348136</v>
+        <v>1116420.316962758</v>
       </c>
       <c r="G186">
-        <v>160.9132623723939</v>
+        <v>4841424.27597784</v>
       </c>
       <c r="H186">
-        <v>1759.720177416545</v>
+        <v>3986069.664740292</v>
       </c>
       <c r="I186">
-        <v>-556.2958045873918</v>
+        <v>1115867.750492129</v>
       </c>
       <c r="J186">
-        <v>983.5863267483792</v>
+        <v>4842009.760974368</v>
       </c>
       <c r="K186">
-        <v>2490.258834713897</v>
+        <v>3987420.306148557</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6955,34 +6949,34 @@
         <v>22</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E187">
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>19.23766764908068</v>
+        <v>1116418.772692292</v>
       </c>
       <c r="G187">
-        <v>174.385461943132</v>
+        <v>4841440.788805516</v>
       </c>
       <c r="H187">
-        <v>1776.363702870494</v>
+        <v>3986085.831925726</v>
       </c>
       <c r="I187">
-        <v>-494.9548838833248</v>
+        <v>1115922.151992683</v>
       </c>
       <c r="J187">
-        <v>922.526726891134</v>
+        <v>4841961.10935824</v>
       </c>
       <c r="K187">
-        <v>2429.093898727574</v>
+        <v>3987345.385628712</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6990,34 +6984,34 @@
         <v>22</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E188">
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>18.75117815702029</v>
+        <v>1116417.345485071</v>
       </c>
       <c r="G188">
-        <v>187.8576615138701</v>
+        <v>4841457.301633191</v>
       </c>
       <c r="H188">
-        <v>1792.155975812227</v>
+        <v>3986101.172221612</v>
       </c>
       <c r="I188">
-        <v>-432.1034994395318</v>
+        <v>1115977.89308014</v>
       </c>
       <c r="J188">
-        <v>861.4671270338886</v>
+        <v>4841912.457742111</v>
       </c>
       <c r="K188">
-        <v>2355.561632789338</v>
+        <v>3987255.31644936</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7025,34 +7019,34 @@
         <v>22</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E189">
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>18.29979611197071</v>
+        <v>1116416.021272062</v>
       </c>
       <c r="G189">
-        <v>201.3298610846082</v>
+        <v>4841473.814460867</v>
       </c>
       <c r="H189">
-        <v>1807.179852249752</v>
+        <v>3986115.76611261</v>
       </c>
       <c r="I189">
-        <v>-367.7044574760239</v>
+        <v>1116035.006740595</v>
       </c>
       <c r="J189">
-        <v>800.4075271766432</v>
+        <v>4841863.806125983</v>
       </c>
       <c r="K189">
-        <v>2269.662036899187</v>
+        <v>3987150.0986105</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7060,34 +7054,34 @@
         <v>22</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E190">
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>17.87949524837192</v>
+        <v>1116414.788241467</v>
       </c>
       <c r="G190">
-        <v>214.8020606553463</v>
+        <v>4841490.327288543</v>
       </c>
       <c r="H190">
-        <v>1821.506650443011</v>
+        <v>3986129.68287584</v>
       </c>
       <c r="I190">
-        <v>-301.7196483501971</v>
+        <v>1116093.526772395</v>
       </c>
       <c r="J190">
-        <v>739.3479273193981</v>
+        <v>4841815.154509854</v>
       </c>
       <c r="K190">
-        <v>2171.395111057124</v>
+        <v>3987029.732112132</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7095,34 +7089,34 @@
         <v>22</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E191">
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>17.48686704750934</v>
+        <v>1116413.636393765</v>
       </c>
       <c r="G191">
-        <v>228.2742602260844</v>
+        <v>4841506.840116219</v>
       </c>
       <c r="H191">
-        <v>1835.19819840029</v>
+        <v>3986142.982569784</v>
       </c>
       <c r="I191">
-        <v>-234.1100240045582</v>
+        <v>1116153.48780614</v>
       </c>
       <c r="J191">
-        <v>678.2883274621527</v>
+        <v>4841766.502893724</v>
       </c>
       <c r="K191">
-        <v>2060.760855263146</v>
+        <v>3986894.216954256</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7130,34 +7124,34 @@
         <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E192">
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>17.11900405536404</v>
+        <v>1116412.557199399</v>
       </c>
       <c r="G192">
-        <v>241.7464597968224</v>
+        <v>4841523.352943894</v>
       </c>
       <c r="H192">
-        <v>1848.308446415982</v>
+        <v>3986155.717600673</v>
       </c>
       <c r="I192">
-        <v>-164.8355748591214</v>
+        <v>1116214.925325178</v>
       </c>
       <c r="J192">
-        <v>617.2287276049075</v>
+        <v>4841717.851277596</v>
       </c>
       <c r="K192">
-        <v>1937.759269517255</v>
+        <v>3986743.553136873</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7165,34 +7159,34 @@
         <v>22</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E193">
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>16.77340903977691</v>
+        <v>1116411.543332276</v>
       </c>
       <c r="G193">
-        <v>255.2186593675605</v>
+        <v>4841539.86577157</v>
       </c>
       <c r="H193">
-        <v>1860.884751025609</v>
+        <v>3986167.93396969</v>
       </c>
       <c r="I193">
-        <v>-93.85530613480266</v>
+        <v>1116277.875686601</v>
       </c>
       <c r="J193">
-        <v>556.1691277476621</v>
+        <v>4841669.199661468</v>
       </c>
       <c r="K193">
-        <v>1802.39035381945</v>
+        <v>3986577.740659981</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7200,34 +7194,34 @@
         <v>22</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E194">
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>16.44792348910748</v>
+        <v>1116410.58846</v>
       </c>
       <c r="G194">
-        <v>268.6908589382986</v>
+        <v>4841556.378599245</v>
       </c>
       <c r="H194">
-        <v>1872.968907587161</v>
+        <v>3986179.672276004</v>
       </c>
       <c r="I194">
-        <v>-21.12721359379777</v>
+        <v>1116342.376142761</v>
       </c>
       <c r="J194">
-        <v>495.1095278904167</v>
+        <v>4841620.548045338</v>
       </c>
       <c r="K194">
-        <v>1654.65410816973</v>
+        <v>3986396.779523581</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7235,34 +7229,34 @@
         <v>22</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E195">
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>16.14067076896166</v>
+        <v>1116409.687077117</v>
       </c>
       <c r="G195">
-        <v>282.1630585090367</v>
+        <v>4841572.891426921</v>
       </c>
       <c r="H195">
-        <v>1884.597988327091</v>
+        <v>3986190.96853083</v>
       </c>
       <c r="I195">
-        <v>53.3917413174113</v>
+        <v>1116408.464863314</v>
       </c>
       <c r="J195">
-        <v>434.0499280331716</v>
+        <v>4841571.89642921</v>
       </c>
       <c r="K195">
-        <v>1494.550532568098</v>
+        <v>3986200.669727674</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7270,34 +7264,34 @@
         <v>22</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E196">
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>15.85001051460646</v>
+        <v>1116408.834371312</v>
       </c>
       <c r="G196">
-        <v>295.6352580797748</v>
+        <v>4841589.404254597</v>
       </c>
       <c r="H196">
-        <v>1895.80502823852</v>
+        <v>3986201.854823696</v>
       </c>
       <c r="I196">
-        <v>129.7456569371273</v>
+        <v>1116476.18095781</v>
       </c>
       <c r="J196">
-        <v>372.9903281759262</v>
+        <v>4841523.244813082</v>
       </c>
       <c r="K196">
-        <v>1322.079627014552</v>
+        <v>3985989.411272258</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7305,34 +7299,34 @@
         <v>22</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E197">
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>15.5745017263877</v>
+        <v>1116408.026115146</v>
       </c>
       <c r="G197">
-        <v>309.1074576505129</v>
+        <v>4841605.917082272</v>
       </c>
       <c r="H197">
-        <v>1906.619590820555</v>
+        <v>3986212.359871988</v>
       </c>
       <c r="I197">
-        <v>207.9797174846652</v>
+        <v>1116545.564498836</v>
       </c>
       <c r="J197">
-        <v>311.930728318681</v>
+        <v>4841474.593196953</v>
       </c>
       <c r="K197">
-        <v>1137.241391509092</v>
+        <v>3985763.004157335</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7340,34 +7334,34 @@
         <v>22</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E198">
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>15.31287267190709</v>
+        <v>1116407.258577754</v>
       </c>
       <c r="G198">
-        <v>322.5796572212509</v>
+        <v>4841622.429909948</v>
       </c>
       <c r="H198">
-        <v>1917.068238065961</v>
+        <v>3986222.509477491</v>
       </c>
       <c r="I198">
-        <v>288.1402197991695</v>
+        <v>1116616.656545728</v>
       </c>
       <c r="J198">
-        <v>250.8711284614356</v>
+        <v>4841425.941580824</v>
       </c>
       <c r="K198">
-        <v>940.0358260517179</v>
+        <v>3985521.448382903</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7375,34 +7369,34 @@
         <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E199">
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>15.06399615983171</v>
+        <v>1116406.528452312</v>
       </c>
       <c r="G199">
-        <v>336.051856791989</v>
+        <v>4841638.942737624</v>
       </c>
       <c r="H199">
-        <v>1927.174923509343</v>
+        <v>3986232.326908187</v>
       </c>
       <c r="I199">
-        <v>370.2746007368592</v>
+        <v>1116689.499168871</v>
       </c>
       <c r="J199">
-        <v>189.8115286041902</v>
+        <v>4841377.289964695</v>
       </c>
       <c r="K199">
-        <v>730.4629306424303</v>
+        <v>3985264.743948964</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7410,34 +7404,34 @@
         <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E200">
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>14.82686908826979</v>
+        <v>1116405.832796035</v>
       </c>
       <c r="G200">
-        <v>349.524056362727</v>
+        <v>4841655.455565299</v>
       </c>
       <c r="H200">
-        <v>1936.961322972375</v>
+        <v>3986241.833219532</v>
       </c>
       <c r="I200">
-        <v>454.4314652428934</v>
+        <v>1116764.135474595</v>
       </c>
       <c r="J200">
-        <v>128.7519287469451</v>
+        <v>4841328.638348566</v>
       </c>
       <c r="K200">
-        <v>508.5227052812294</v>
+        <v>3984992.890855516</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7445,34 +7439,34 @@
         <v>22</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E201">
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>14.6005954212311</v>
+        <v>1116405.168980235</v>
       </c>
       <c r="G201">
-        <v>362.9962559334651</v>
+        <v>4841671.968392976</v>
       </c>
       <c r="H201">
-        <v>1946.44711449375</v>
+        <v>3986251.047526377</v>
       </c>
       <c r="I201">
-        <v>540.6606151144948</v>
+        <v>1116840.609630684</v>
       </c>
       <c r="J201">
-        <v>67.6923288896997</v>
+        <v>4841279.986732438</v>
       </c>
       <c r="K201">
-        <v>274.2151499681141</v>
+        <v>3984705.889102561</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7480,34 +7474,34 @@
         <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E202">
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>14.38437193433681</v>
+        <v>1116404.534648503</v>
       </c>
       <c r="G202">
-        <v>376.4684555042032</v>
+        <v>4841688.481220651</v>
       </c>
       <c r="H202">
-        <v>1955.650216533866</v>
+        <v>3986259.987234353</v>
       </c>
       <c r="I202">
-        <v>629.0130784723203</v>
+        <v>1116918.966892511</v>
       </c>
       <c r="J202">
-        <v>6.632729032454282</v>
+        <v>4841231.335116308</v>
       </c>
       <c r="K202">
-        <v>27.54026470308517</v>
+        <v>3984403.738690098</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7515,34 +7509,34 @@
         <v>22</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E203">
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>14.17747621281435</v>
+        <v>1116403.927681502</v>
       </c>
       <c r="G203">
-        <v>389.9406550749413</v>
+        <v>4841704.994048326</v>
       </c>
       <c r="H203">
-        <v>1964.586991701991</v>
+        <v>3986268.668237768</v>
       </c>
       <c r="I203">
-        <v>719.5411399575559</v>
+        <v>1116999.253629823</v>
       </c>
       <c r="J203">
-        <v>-54.42687082479084</v>
+        <v>4841182.68350018</v>
       </c>
       <c r="K203">
-        <v>-231.5019505138567</v>
+        <v>3984086.439618126</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7550,34 +7544,34 @@
         <v>22</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E204">
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>13.97925649303303</v>
+        <v>1116403.346167163</v>
       </c>
       <c r="G204">
-        <v>403.4128546456793</v>
+        <v>4841721.506876002</v>
       </c>
       <c r="H204">
-        <v>1973.272421826106</v>
+        <v>3986277.10508967</v>
       </c>
       <c r="I204">
-        <v>812.2983716725762</v>
+        <v>1117081.517354179</v>
       </c>
       <c r="J204">
-        <v>-115.4864706820363</v>
+        <v>4841134.031884052</v>
       </c>
       <c r="K204">
-        <v>-502.9114956827131</v>
+        <v>3983753.991886648</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7585,34 +7579,34 @@
         <v>22</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E205">
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>13.7891230220838</v>
+        <v>1116402.788375336</v>
       </c>
       <c r="G205">
-        <v>416.8850542164175</v>
+        <v>4841738.019703678</v>
       </c>
       <c r="H205">
-        <v>1981.720259070668</v>
+        <v>3986285.311148634</v>
       </c>
       <c r="I205">
-        <v>907.3396648834912</v>
+        <v>1117165.806747066</v>
       </c>
       <c r="J205">
-        <v>-176.5460705392817</v>
+        <v>4841085.380267922</v>
       </c>
       <c r="K205">
-        <v>-786.6883708034838</v>
+        <v>3983406.395495661</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7620,34 +7614,34 @@
         <v>22</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E206">
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>13.60654067445169</v>
+        <v>1116402.252736131</v>
       </c>
       <c r="G206">
-        <v>430.3572537871555</v>
+        <v>4841754.532531354</v>
       </c>
       <c r="H206">
-        <v>1989.943156930161</v>
+        <v>3986293.29870601</v>
       </c>
       <c r="I206">
-        <v>1004.721262503338</v>
+        <v>1117252.171688708</v>
       </c>
       <c r="J206">
-        <v>-237.6056703965271</v>
+        <v>4841036.728651794</v>
       </c>
       <c r="K206">
-        <v>-1082.832575876168</v>
+        <v>3983043.650445166</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7655,34 +7649,34 @@
         <v>22</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E207">
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>13.43102261524428</v>
+        <v>1116401.737821327</v>
       </c>
       <c r="G207">
-        <v>443.8294533578936</v>
+        <v>4841771.045359029</v>
       </c>
       <c r="H207">
-        <v>1997.952784231102</v>
+        <v>3986301.07909666</v>
       </c>
       <c r="I207">
-        <v>1104.500792375147</v>
+        <v>1117340.663287584</v>
       </c>
       <c r="J207">
-        <v>-298.6652702537719</v>
+        <v>4840988.077035666</v>
       </c>
       <c r="K207">
-        <v>-1391.344110900764</v>
+        <v>3982665.756735163</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7690,34 +7684,34 @@
         <v>22</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E208">
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>13.26212483909572</v>
+        <v>1116401.242328351</v>
       </c>
       <c r="G208">
-        <v>457.3016529286317</v>
+        <v>4841787.558186704</v>
       </c>
       <c r="H208">
-        <v>2005.759924720568</v>
+        <v>3986308.662795699</v>
       </c>
       <c r="I208">
-        <v>1206.737301374565</v>
+        <v>1117431.333910671</v>
       </c>
       <c r="J208">
-        <v>-359.7248701110173</v>
+        <v>4840939.425419536</v>
       </c>
       <c r="K208">
-        <v>-1712.222975877275</v>
+        <v>3982272.714365652</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7725,34 +7719,34 @@
         <v>22</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E209">
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>13.09944144526474</v>
+        <v>1116400.76506642</v>
       </c>
       <c r="G209">
-        <v>470.7738524993698</v>
+        <v>4841804.071014381</v>
       </c>
       <c r="H209">
-        <v>2013.374564374226</v>
+        <v>3986316.059503303</v>
       </c>
       <c r="I209">
-        <v>1311.49129035223</v>
+        <v>1117524.237214437</v>
       </c>
       <c r="J209">
-        <v>-420.7844699682627</v>
+        <v>4840890.773803407</v>
       </c>
       <c r="K209">
-        <v>-2045.4691708057</v>
+        <v>3981864.523336633</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7760,34 +7754,34 @@
         <v>22</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E210">
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>12.94260053446318</v>
+        <v>1116400.304944498</v>
       </c>
       <c r="G210">
-        <v>484.2460520701078</v>
+        <v>4841820.583842057</v>
       </c>
       <c r="H210">
-        <v>2020.805968197404</v>
+        <v>3986323.278219312</v>
       </c>
       <c r="I210">
-        <v>1418.824749936567</v>
+        <v>1117619.428176588</v>
       </c>
       <c r="J210">
-        <v>-481.8440698255081</v>
+        <v>4840842.122187278</v>
       </c>
       <c r="K210">
-        <v>-2391.082695686039</v>
+        <v>3981441.183648107</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7795,34 +7789,34 @@
         <v>22</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E211">
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>12.79126063300377</v>
+        <v>1116399.860960807</v>
       </c>
       <c r="G211">
-        <v>497.7182516408459</v>
+        <v>4841837.096669732</v>
       </c>
       <c r="H211">
-        <v>2028.062748000945</v>
+        <v>3986330.327309065</v>
       </c>
       <c r="I211">
-        <v>1528.801197218197</v>
+        <v>1117716.963128608</v>
       </c>
       <c r="J211">
-        <v>-542.9036696827535</v>
+        <v>4840793.47057115</v>
       </c>
       <c r="K211">
-        <v>-2749.063550518292</v>
+        <v>3981002.695300072</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7830,34 +7824,34 @@
         <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E212">
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>12.64510756601723</v>
+        <v>1116399.432193658</v>
       </c>
       <c r="G212">
-        <v>511.190451211584</v>
+        <v>4841853.609497407</v>
       </c>
       <c r="H212">
-        <v>2035.152922395391</v>
+        <v>3986337.214561679</v>
       </c>
       <c r="I212">
-        <v>1641.485713337658</v>
+        <v>1117816.899789091</v>
       </c>
       <c r="J212">
-        <v>-603.9632695399984</v>
+        <v>4840744.818955022</v>
       </c>
       <c r="K212">
-        <v>-3119.411735302456</v>
+        <v>3980549.05829253</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7865,34 +7859,34 @@
         <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E213">
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>12.50385171458651</v>
+        <v>1116399.017793399</v>
       </c>
       <c r="G213">
-        <v>524.6626507823221</v>
+        <v>4841870.122325084</v>
       </c>
       <c r="H213">
-        <v>2042.083970051604</v>
+        <v>3986343.947241785</v>
       </c>
       <c r="I213">
-        <v>1756.94498199871</v>
+        <v>1117919.297297898</v>
       </c>
       <c r="J213">
-        <v>-665.0228693972438</v>
+        <v>4840696.167338892</v>
       </c>
       <c r="K213">
-        <v>-3502.127250038536</v>
+        <v>3980080.272625479</v>
       </c>
     </row>
   </sheetData>
